--- a/data/hotels_by_city/Dallas/Dallas_shard_561.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_561.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,633 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r499544067-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>98690</t>
+  </si>
+  <si>
+    <t>499544067</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Conveniently located near Dallas Love Field</t>
+  </si>
+  <si>
+    <t>We had previously checked in and immediately checked out of another hotel near by and was looking for a cheap but decent place to lay our heads til our great nieces flight came in the next morning. This place was conveniently located near the airport and the staff went above and beyond to accommodate us. There was no blow dryer however they loaned us one and than when the flight was delayed they let us hang out in our room that was suppose to be vacated by 11am until after 12 with no additional charge. Couldn't ask for nicer people. The place is nothing fancy but it is clean and the rooms look upgraded, air was nice and cold and best of all, no dirty ugly carpet.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We had previously checked in and immediately checked out of another hotel near by and was looking for a cheap but decent place to lay our heads til our great nieces flight came in the next morning. This place was conveniently located near the airport and the staff went above and beyond to accommodate us. There was no blow dryer however they loaned us one and than when the flight was delayed they let us hang out in our room that was suppose to be vacated by 11am until after 12 with no additional charge. Couldn't ask for nicer people. The place is nothing fancy but it is clean and the rooms look upgraded, air was nice and cold and best of all, no dirty ugly carpet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r459235833-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>459235833</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>So so!</t>
+  </si>
+  <si>
+    <t>This place is just ok. There's a lot of riff raft around the motel. The room was so so. I didn't feel comfortable. But because I had to pay for the room in advance I stayed here.  I locked the doors and the deadbolt. The linens on the bed for Were so so with the exception of the top spread. They were dirty with stains. Luckily I had two queen beds and one of the beds looked clean. The bed I didn't sleep in had the stains on the top quilt. There's no amenities. You're lucky to get a bar soap and no TP ( glad I had Kleenex). The only reason I gave it one star is because the front desk people were very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This place is just ok. There's a lot of riff raft around the motel. The room was so so. I didn't feel comfortable. But because I had to pay for the room in advance I stayed here.  I locked the doors and the deadbolt. The linens on the bed for Were so so with the exception of the top spread. They were dirty with stains. Luckily I had two queen beds and one of the beds looked clean. The bed I didn't sleep in had the stains on the top quilt. There's no amenities. You're lucky to get a bar soap and no TP ( glad I had Kleenex). The only reason I gave it one star is because the front desk people were very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r448383660-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>448383660</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Recommend any time also low prices</t>
+  </si>
+  <si>
+    <t>Good rooms nice service great wifi also great management good area convienent to downtown dallas taxi service bus service also alot of delivery food places great cable channels great housekeeping i will come back anytime</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r375537395-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>375537395</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Excellent Location, Staff and Accommodations!</t>
+  </si>
+  <si>
+    <t>My recent stay at this Motel 6 in Dallas was simply wonderful! The staff under the supervision of the Front Desk Manager Mr. P.K. was very welcoming and efficient. The room was spacious, clean, stocked with everything a person needs on a business trip and the beds was simply divine; I didn't toss and turn during the night but slept like a baby! I'm very grateful for my visit at this Motel 6 and I'll certainly be back very soon. As far as I'm concerned, this is my hotel destination in Dallas!</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r375202136-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>375202136</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Helpful staff and clean remodeled room</t>
+  </si>
+  <si>
+    <t>Recently stayed here for 3 days.  Room was recently painted, and remodeled with new furniture and a hard surface floor with no carpet. Also has a small refrigeator in room.  I like this place and usually stay here, but hadn't been in Dallas for 6 months.  It only improved in this time.  I don't think there's a better buy in Dallas for the price,  and it's clean, safe and very convenient.  I didn't take my dogs with me this time, but they don't charge extra at all  for them to stay in the room, which is a big savings.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r371803043-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>371803043</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Can't Believe Motel 6 Claims This Place!</t>
+  </si>
+  <si>
+    <t>Needed a place in a hurry that was close to Love Field in Dallas. Big Mistake! Room not clean, parking was tight, stated non smoking rooms but bed spread had cigarette burns, people running around at all hours of night, car alarms going off ayerrs 1:40 in morning,  crickets &amp; bugs in room,holes in Walls. Could not sleep, took for ever for the hot water to reach the faucet, &amp; Could not wait to get out of that place. Luckily we had an early flight. Absolutely the worst motel I have ever stayed at. I really hope the the Motel 6 representatives  disown this place. It's an embarrassment to the Motel 6 franchise. Never, ever will I stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Dallas - Market Center, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Needed a place in a hurry that was close to Love Field in Dallas. Big Mistake! Room not clean, parking was tight, stated non smoking rooms but bed spread had cigarette burns, people running around at all hours of night, car alarms going off ayerrs 1:40 in morning,  crickets &amp; bugs in room,holes in Walls. Could not sleep, took for ever for the hot water to reach the faucet, &amp; Could not wait to get out of that place. Luckily we had an early flight. Absolutely the worst motel I have ever stayed at. I really hope the the Motel 6 representatives  disown this place. It's an embarrassment to the Motel 6 franchise. Never, ever will I stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r340138044-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>340138044</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>They couldn't pay me to stay another night</t>
+  </si>
+  <si>
+    <t>I'm writing this at 2:50am after being awake half the night. There have been people outside and in the rooms surrounding us chatting in very loud voices as though it is the middle of the day. I had managed to doze off at one point and was woken by someone talking very loudly. Thank goodness we had a light on or I would have thought they were IN the room. The room is wired so that in order to have electricity to the mini fridge you HAVE to keep the light on. IF YOU WANT TO GET ANY SLEEP STAY AWAY!</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r331978920-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>331978920</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Clean, Friendly and Safe New Motel 6</t>
+  </si>
+  <si>
+    <t>I had to come to downtown Dallas and stay in a hotel as I live too far north to drive in for the required educational training courses. I would need to get up at 2 AM just to get to the 8AM class. We were blessed to find this location for Motel 6. I felt very safe and I am over 60. It was clean and my room which had a king sized bed was very comfortable. The staff that work there are very kind, helpful and it makes them smile if you tell them that you had a great time and how proud you are that you found a great place to stay when you come to Dallas. I highly recommend Motel 6 at 1625 . Regal Row, Dallas, TX. They have a new hotel and it is an above average for a Motel 6. It is peaceful there also. Bed very comfortable and extremely clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>I had to come to downtown Dallas and stay in a hotel as I live too far north to drive in for the required educational training courses. I would need to get up at 2 AM just to get to the 8AM class. We were blessed to find this location for Motel 6. I felt very safe and I am over 60. It was clean and my room which had a king sized bed was very comfortable. The staff that work there are very kind, helpful and it makes them smile if you tell them that you had a great time and how proud you are that you found a great place to stay when you come to Dallas. I highly recommend Motel 6 at 1625 . Regal Row, Dallas, TX. They have a new hotel and it is an above average for a Motel 6. It is peaceful there also. Bed very comfortable and extremely clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r330892560-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>330892560</t>
+  </si>
+  <si>
+    <t>12/05/2015</t>
+  </si>
+  <si>
+    <t>Enough!  Never again.</t>
+  </si>
+  <si>
+    <t>They promised that they had remodeled... so we gave it another go, but what a strange remodel.  the bathrooms still have BIG holes in the walls and the fixtures are dangling.  Filthy inside and out and way too many suspicious folks wandering about at all hours.  I did see one security guard on patrol but then again, he might have been just cutting through from another job to get to the Grandy's (which is also highly unrecommended -- order a side of immodium a-d!)    Between the domestic squabbes, the prostitutes, the drug deals and lawd knows what else....   unless you're casting for a reality show, skip a meal and stay somewhere else for a few more dollars.    When another review mentioned murders and swat teams and the management's reply was "sorry for the noise".....   you gotta think for yourself.  Run Forrest Run!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>They promised that they had remodeled... so we gave it another go, but what a strange remodel.  the bathrooms still have BIG holes in the walls and the fixtures are dangling.  Filthy inside and out and way too many suspicious folks wandering about at all hours.  I did see one security guard on patrol but then again, he might have been just cutting through from another job to get to the Grandy's (which is also highly unrecommended -- order a side of immodium a-d!)    Between the domestic squabbes, the prostitutes, the drug deals and lawd knows what else....   unless you're casting for a reality show, skip a meal and stay somewhere else for a few more dollars.    When another review mentioned murders and swat teams and the management's reply was "sorry for the noise".....   you gotta think for yourself.  Run Forrest Run!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r302011132-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>302011132</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Not too safe an area to stay in!</t>
+  </si>
+  <si>
+    <t>Basic Motel 6, my room seemed renovated, it was ok. Some strange people hanging around the hotel but I went to bed early, and slept well. Big was my surprise in the morning (6.30am) to see tons of SWAT team members all around the motel, I quickly packed my bags as I was told to stay inside my room. After I while, I did 'venture' outside to leave as quickly as I could, the area around the motel was in 'lock down mode'. I did not know that this area was known to be unsafe, otherwise I would not have stayed. Even better? The killer (see the previous review) was in the room right above mine, saw him drinking with two other guys all afternoon, just as well we did  not talk to each other...Will in future be much more selective about where I am going to stay. Motel 6 have been a big disappointment for me during this trip! They really have to better their game somewhat, or close down!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Dallas - Market Center, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Basic Motel 6, my room seemed renovated, it was ok. Some strange people hanging around the hotel but I went to bed early, and slept well. Big was my surprise in the morning (6.30am) to see tons of SWAT team members all around the motel, I quickly packed my bags as I was told to stay inside my room. After I while, I did 'venture' outside to leave as quickly as I could, the area around the motel was in 'lock down mode'. I did not know that this area was known to be unsafe, otherwise I would not have stayed. Even better? The killer (see the previous review) was in the room right above mine, saw him drinking with two other guys all afternoon, just as well we did  not talk to each other...Will in future be much more selective about where I am going to stay. Motel 6 have been a big disappointment for me during this trip! They really have to better their game somewhat, or close down!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r301315357-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>301315357</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>Murder in the rue morgue</t>
+  </si>
+  <si>
+    <t>Talk about an exciting experience. Arrived at the hotel and they didn't have the reservation that was called in over the phone. Went to the room and the scary movie scenario kicks in. Light by the door didn't work. Faucet on sink lifted out of the actual sink. Bathroom had a huge hole in the ceiling not sure if that was for extra ventilation from the mold but wasn't charged for that. Was offered drugs outside of my room, and tv was not working front deak clerk came to correct problem scanned for channels still did not work, went to front desk and he denied ever being in the room. 2nd employee came in and actually fixed it. The prostitutes were in the lobby and was asking for the room by the pool so keep your eyea out for that filth also. First night heard noises all night people walking around constantly outside. Second night the fun begins. Laying in bed at 2am and hear what sounded like a car hitting a dumpster however laying there at 6am to see your motel on TV that someone was shot and murdered in room 231 and body was laying on the balcony blood everywhere. Swat shows up at ,7am and is announcing that the person in room 231 they thought the killer was still in there should come out with his hands up this went on til about 10am when they breached...Talk about an exciting experience. Arrived at the hotel and they didn't have the reservation that was called in over the phone. Went to the room and the scary movie scenario kicks in. Light by the door didn't work. Faucet on sink lifted out of the actual sink. Bathroom had a huge hole in the ceiling not sure if that was for extra ventilation from the mold but wasn't charged for that. Was offered drugs outside of my room, and tv was not working front deak clerk came to correct problem scanned for channels still did not work, went to front desk and he denied ever being in the room. 2nd employee came in and actually fixed it. The prostitutes were in the lobby and was asking for the room by the pool so keep your eyea out for that filth also. First night heard noises all night people walking around constantly outside. Second night the fun begins. Laying in bed at 2am and hear what sounded like a car hitting a dumpster however laying there at 6am to see your motel on TV that someone was shot and murdered in room 231 and body was laying on the balcony blood everywhere. Swat shows up at ,7am and is announcing that the person in room 231 they thought the killer was still in there should come out with his hands up this went on til about 10am when they breached the window and found no one inside. So all in all don't stay here unless you want to be the next victim.. Beware not safe to stay here.  http://www.nbcdfw.com/news/local/Man-Fatally-Shot-at-Dallas-Motel-Police-322255051.htmlMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Talk about an exciting experience. Arrived at the hotel and they didn't have the reservation that was called in over the phone. Went to the room and the scary movie scenario kicks in. Light by the door didn't work. Faucet on sink lifted out of the actual sink. Bathroom had a huge hole in the ceiling not sure if that was for extra ventilation from the mold but wasn't charged for that. Was offered drugs outside of my room, and tv was not working front deak clerk came to correct problem scanned for channels still did not work, went to front desk and he denied ever being in the room. 2nd employee came in and actually fixed it. The prostitutes were in the lobby and was asking for the room by the pool so keep your eyea out for that filth also. First night heard noises all night people walking around constantly outside. Second night the fun begins. Laying in bed at 2am and hear what sounded like a car hitting a dumpster however laying there at 6am to see your motel on TV that someone was shot and murdered in room 231 and body was laying on the balcony blood everywhere. Swat shows up at ,7am and is announcing that the person in room 231 they thought the killer was still in there should come out with his hands up this went on til about 10am when they breached...Talk about an exciting experience. Arrived at the hotel and they didn't have the reservation that was called in over the phone. Went to the room and the scary movie scenario kicks in. Light by the door didn't work. Faucet on sink lifted out of the actual sink. Bathroom had a huge hole in the ceiling not sure if that was for extra ventilation from the mold but wasn't charged for that. Was offered drugs outside of my room, and tv was not working front deak clerk came to correct problem scanned for channels still did not work, went to front desk and he denied ever being in the room. 2nd employee came in and actually fixed it. The prostitutes were in the lobby and was asking for the room by the pool so keep your eyea out for that filth also. First night heard noises all night people walking around constantly outside. Second night the fun begins. Laying in bed at 2am and hear what sounded like a car hitting a dumpster however laying there at 6am to see your motel on TV that someone was shot and murdered in room 231 and body was laying on the balcony blood everywhere. Swat shows up at ,7am and is announcing that the person in room 231 they thought the killer was still in there should come out with his hands up this went on til about 10am when they breached the window and found no one inside. So all in all don't stay here unless you want to be the next victim.. Beware not safe to stay here.  http://www.nbcdfw.com/news/local/Man-Fatally-Shot-at-Dallas-Motel-Police-322255051.htmlMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r292486308-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>292486308</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>one of the wrost hotel experiences ive ever had</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed at this hotel earlier in the week and we were only there 45 minutes when we saw a huge roach on the wall. We immediately packed up our things went to the front desk checked out and asked for a refund. Because the guy at the front desk said there was 2 more people in a double room, that we did not have on the reservation he refused to give us a refund and told me to call the next day to speak with the manager. The manager gave me the run around and needles to say I never got my money back and I will not be staying at another motel 6 establishment ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Market Center, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed at this hotel earlier in the week and we were only there 45 minutes when we saw a huge roach on the wall. We immediately packed up our things went to the front desk checked out and asked for a refund. Because the guy at the front desk said there was 2 more people in a double room, that we did not have on the reservation he refused to give us a refund and told me to call the next day to speak with the manager. The manager gave me the run around and needles to say I never got my money back and I will not be staying at another motel 6 establishment ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r267969819-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>267969819</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>Just Don't...</t>
+  </si>
+  <si>
+    <t>I booked this room last minute because I needed a room to sleep for a few hours while in Dallas and had my dog with me. The motel is pet friendly and was cheap so I booked it. My expectations were low going in but I was even more disappointed once I arrived. The hotel is in a bad area around several strip joints and I'm pretty sure it's just a hookup stripper motel. The front desk agent left the front doors locked while I checked in and only slid my keys through a little bank teller window at the front of the lobby. Arriving in the room, it had been recently remodeled and would show great in pictures. However, all of the details in the room were dirty and unfinished. The bed was by far the worst mattress I have ever slept on and I am young and can sleep on about anything. The door did not close properly and showed light on all four sides. There was moldy Sheetrock next to the shower, the bathroom sink did not drain. I know this is a cheap motel and you get what you pay for but it was an awful experience and I would never recommend anyone go to this Motel until it has been renovated. It does have potential but for now it is just plain pitiful. MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Market Center, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>I booked this room last minute because I needed a room to sleep for a few hours while in Dallas and had my dog with me. The motel is pet friendly and was cheap so I booked it. My expectations were low going in but I was even more disappointed once I arrived. The hotel is in a bad area around several strip joints and I'm pretty sure it's just a hookup stripper motel. The front desk agent left the front doors locked while I checked in and only slid my keys through a little bank teller window at the front of the lobby. Arriving in the room, it had been recently remodeled and would show great in pictures. However, all of the details in the room were dirty and unfinished. The bed was by far the worst mattress I have ever slept on and I am young and can sleep on about anything. The door did not close properly and showed light on all four sides. There was moldy Sheetrock next to the shower, the bathroom sink did not drain. I know this is a cheap motel and you get what you pay for but it was an awful experience and I would never recommend anyone go to this Motel until it has been renovated. It does have potential but for now it is just plain pitiful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r265765686-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>265765686</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean but bad area </t>
+  </si>
+  <si>
+    <t>We got here after an 8hour drive and when we pulled up to go into our room a man drove up very fast and jump out of his car to asked if we worked here and then proceeded to ask us for 2$ cash for gas and was VERY pushy and make us very nervous. Also is directly across the street for a strip club! Won't have booked if we knew this. As for the room all and all a very basic average room but very clean good tv and ac Walls are very thin and could here next doors TV very well.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r265584283-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>265584283</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>Needs some repair</t>
+  </si>
+  <si>
+    <t>I prefer to stay at motel 6 because the newer look is easily cleaned. This one had some issues that really let me down. It was in serious disrepair. The toilet did not flush properly and ran all night, the molding was rotted and furnishings were just plain dirty.The staff was nice but had a note on the door that said "Be back in 10 minutes" when I arrived.I saw another reviewer years ago posted that gunshots or fireworks went off in the middle of the night. I had the exact same experience. 4 loud pops right in a row that startled me out of sleep. The location felt safe enough to me and the bedding was clean. Excellent wifi ..at least 4 available connections and no problems hooking up or staying connected.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Market Center, responded to this reviewResponded April 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2015</t>
+  </si>
+  <si>
+    <t>I prefer to stay at motel 6 because the newer look is easily cleaned. This one had some issues that really let me down. It was in serious disrepair. The toilet did not flush properly and ran all night, the molding was rotted and furnishings were just plain dirty.The staff was nice but had a note on the door that said "Be back in 10 minutes" when I arrived.I saw another reviewer years ago posted that gunshots or fireworks went off in the middle of the night. I had the exact same experience. 4 loud pops right in a row that startled me out of sleep. The location felt safe enough to me and the bedding was clean. Excellent wifi ..at least 4 available connections and no problems hooking up or staying connected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r254184792-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>254184792</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>It was a place to sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint peeling in the bathroom. Tub leaked badly. Water spigot didn't work right, poured out cold water when turned all the way, had to turn back a bit to just get warm water. Floor was not carpeted and was cold. Thankfully the heater worked. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r250648101-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>250648101</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a no frills hotel but wow what great value. If you have places to be during the day and only using your hotel to sleep this is your place. Use your money for other exciting things. A bit loud at night but that's not the hotels fault. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r247919775-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>247919775</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>They must have performed an exorcism and cleansed the ground!</t>
+  </si>
+  <si>
+    <t>I went to this hotel afraid it was going to be like it was in the past....my fear was not needed Motel 6 totally renovated and hired security to patrol the parking lot to weed out the criminal element.The best thing about the room is that they removed carpet! I mean what a novel idea! put in hardwood floors so you don't have to walk on nasty hotel carpet!The manager Kash, sets the bar high in hospitality. He is very personable and efficient. Can't beat this hotel for value/cleanliness/staff!</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r234380475-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>234380475</t>
+  </si>
+  <si>
+    <t>10/14/2014</t>
+  </si>
+  <si>
+    <t>great location and nice rooms</t>
+  </si>
+  <si>
+    <t>the location was great, right off i-35, the outside looks inviting and the rooms are newly renovated with modern colors and lighting. I would definitely stay there again. I ended up paying an avg of just 40 dollars per nite. The staff was friendly, the lobby was nice. only 2 miles from love field. the only thing i wasnt too fond of was the flat screen tv. it was kinda small.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r234016108-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>234016108</t>
+  </si>
+  <si>
+    <t>10/12/2014</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Though in a convenient location near I-35E and a DART station, it may not have been the best neighborhood, as there is a strip club right across the street. (This doesn't offend me personally, but I know others may take offense.) The lobby was inviting, and the desk clerk was polite and helpful. Our room was on the second floor, but it felt like the stairs were a mile away. The room itself seemed a little run down, but it was clean.  I'd stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r229333774-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>229333774</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>new rooms, great price</t>
+  </si>
+  <si>
+    <t>checked in and found the rooms to be newly renovated, wood flooring, flat screen tvs, modern beds and bedding. crazy for a cost of the room. didn't expect all that from a motel 6. manager mike was great. staff was very helpful.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r185129204-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>185129204</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>So So</t>
+  </si>
+  <si>
+    <t>I got caught in Dallas rush hour after a long day at the JFK assaination site. I jumped off the freeway and came here. The problem for me is the area is bad. The room was sparce but clean. Ok for a few hours before being off to Austin...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r174221136-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>174221136</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>So much potential, so little quality</t>
+  </si>
+  <si>
+    <t>I've had good experiences with Motel 6 while traveling with my dog (Mammoth, South Lake Tahoe, Bishop, to name a few) but this location was pretty bad. I pulled into the parking lot where there were a lot of shady characters standing around. Turns out they were trying to figure out what to do with a broken-down truck--repairs commenced in the parking lot later and lasted well into the night. In addition to the broken down truck, there was a disabled, partially disassembled motorcycle parked in the stairwell near the office. The room was missing standard Motel 6 stuff: no phone, no hangers in the closet. Horrid green fluorescent light in the bathroom that made it impossible to put on makeup (I put it on in the car). The handle on the toilet was broken, so the toilet would run and make a lot of noise. The manager, Mike Patel was very nice, but I had the feeling that he'd lost control over the location with all the shady people hanging around. He gave me hangers when I asked for them. Pros are that it is close to Love Field and the car rental locations, the room was clean, Mike was nice (if ineffective). It would be OK for a night, but was hard to take for 3 nights.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>I've had good experiences with Motel 6 while traveling with my dog (Mammoth, South Lake Tahoe, Bishop, to name a few) but this location was pretty bad. I pulled into the parking lot where there were a lot of shady characters standing around. Turns out they were trying to figure out what to do with a broken-down truck--repairs commenced in the parking lot later and lasted well into the night. In addition to the broken down truck, there was a disabled, partially disassembled motorcycle parked in the stairwell near the office. The room was missing standard Motel 6 stuff: no phone, no hangers in the closet. Horrid green fluorescent light in the bathroom that made it impossible to put on makeup (I put it on in the car). The handle on the toilet was broken, so the toilet would run and make a lot of noise. The manager, Mike Patel was very nice, but I had the feeling that he'd lost control over the location with all the shady people hanging around. He gave me hangers when I asked for them. Pros are that it is close to Love Field and the car rental locations, the room was clean, Mike was nice (if ineffective). It would be OK for a night, but was hard to take for 3 nights.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r172045908-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>172045908</t>
+  </si>
+  <si>
+    <t>08/13/2013</t>
+  </si>
+  <si>
+    <t>Not so bad- good management, remodeled rooms &amp; has a pool; centrally located</t>
+  </si>
+  <si>
+    <t>08/10/13
+    Yes, I was desperate.  Visiting a relative who was absolutely FILTHY, and couldn't take it anymore.  Just started driving around- found a nice lil(well kinda big) Biker Bar/grill(Strokers- had GREAT food, maybe 1- 1&amp;1/2 miles away) on Harry Hines &amp; asked around.  Barmaid directed me here, said it wasn't too bad.  Reviews already had me driving right by this place.. WHY IS IT THAT NO ONE EVER MAKES GOOD REVIEWS??  NO, ONLY BAD REVIEWS- DO YOU REALIZE THAT IT WOULD MEAN NO ONE WOULD EVER GO ANYWHERE?!
+   So here's the dirt:  I FOUND MYSELF VERY GRATEFUL FOR THEIR KINDNESS, THEIR VERY CLEAN ROOM, THEIR CONTINUED CONCERN IN MAKING MY STAY COMFORTABLE!
+My room, at least, had been remodeled.  Fresh paint on the walls, no filthy carpet- they had installed a nice wooden floor, water pressure was great, gave me batteries for the remote without question. No issues with the room card, &amp; they were VERY helpful in suggesting good places to eat &amp; with directions(altho they had quite a few businesses that would deliver to your room).  They had a pool, but I was too tired to go &amp; look at it.
+     Flip side: bed was very old &amp; worn out, hard as a rock and in the morning, I had what I percieved to be bites!  Sheets seemed to be fresh &amp; I believed they even washed the bedspreads; I do have some allregies, so I may have...08/10/13    Yes, I was desperate.  Visiting a relative who was absolutely FILTHY, and couldn't take it anymore.  Just started driving around- found a nice lil(well kinda big) Biker Bar/grill(Strokers- had GREAT food, maybe 1- 1&amp;1/2 miles away) on Harry Hines &amp; asked around.  Barmaid directed me here, said it wasn't too bad.  Reviews already had me driving right by this place.. WHY IS IT THAT NO ONE EVER MAKES GOOD REVIEWS??  NO, ONLY BAD REVIEWS- DO YOU REALIZE THAT IT WOULD MEAN NO ONE WOULD EVER GO ANYWHERE?!   So here's the dirt:  I FOUND MYSELF VERY GRATEFUL FOR THEIR KINDNESS, THEIR VERY CLEAN ROOM, THEIR CONTINUED CONCERN IN MAKING MY STAY COMFORTABLE!My room, at least, had been remodeled.  Fresh paint on the walls, no filthy carpet- they had installed a nice wooden floor, water pressure was great, gave me batteries for the remote without question. No issues with the room card, &amp; they were VERY helpful in suggesting good places to eat &amp; with directions(altho they had quite a few businesses that would deliver to your room).  They had a pool, but I was too tired to go &amp; look at it.     Flip side: bed was very old &amp; worn out, hard as a rock and in the morning, I had what I percieved to be bites!  Sheets seemed to be fresh &amp; I believed they even washed the bedspreads; I do have some allregies, so I may have had a reaction to their soap.   YES, there is a strip joint across the road; it wasn't an issue for me... just don't be dum &amp; let em follow you back to your room, lol. It is NOT the SAFEST area, I don't think- just be aware of your surroundings.  There were a few roaming ner'-do-wells, just mind yourself &amp; don't allow contact.   All in all, I'd stay again, happily- but I'd roll out my own sleeping bag on top of that bed &amp; bring my own sheets &amp; pillow(which I had, thankfully)!  But then again- I usually do; just found myself without them on this trip(well, I thought I was staying with my very haughty relative- NEVER thought their house would be SO bad that it DROVE me out &amp; should be CONDEMNED!!)This was a lifesaver on my trip, because it was far too late to begin a 250 mile drive!MoreShow less</t>
+  </si>
+  <si>
+    <t>08/10/13
+    Yes, I was desperate.  Visiting a relative who was absolutely FILTHY, and couldn't take it anymore.  Just started driving around- found a nice lil(well kinda big) Biker Bar/grill(Strokers- had GREAT food, maybe 1- 1&amp;1/2 miles away) on Harry Hines &amp; asked around.  Barmaid directed me here, said it wasn't too bad.  Reviews already had me driving right by this place.. WHY IS IT THAT NO ONE EVER MAKES GOOD REVIEWS??  NO, ONLY BAD REVIEWS- DO YOU REALIZE THAT IT WOULD MEAN NO ONE WOULD EVER GO ANYWHERE?!
+   So here's the dirt:  I FOUND MYSELF VERY GRATEFUL FOR THEIR KINDNESS, THEIR VERY CLEAN ROOM, THEIR CONTINUED CONCERN IN MAKING MY STAY COMFORTABLE!
+My room, at least, had been remodeled.  Fresh paint on the walls, no filthy carpet- they had installed a nice wooden floor, water pressure was great, gave me batteries for the remote without question. No issues with the room card, &amp; they were VERY helpful in suggesting good places to eat &amp; with directions(altho they had quite a few businesses that would deliver to your room).  They had a pool, but I was too tired to go &amp; look at it.
+     Flip side: bed was very old &amp; worn out, hard as a rock and in the morning, I had what I percieved to be bites!  Sheets seemed to be fresh &amp; I believed they even washed the bedspreads; I do have some allregies, so I may have...08/10/13    Yes, I was desperate.  Visiting a relative who was absolutely FILTHY, and couldn't take it anymore.  Just started driving around- found a nice lil(well kinda big) Biker Bar/grill(Strokers- had GREAT food, maybe 1- 1&amp;1/2 miles away) on Harry Hines &amp; asked around.  Barmaid directed me here, said it wasn't too bad.  Reviews already had me driving right by this place.. WHY IS IT THAT NO ONE EVER MAKES GOOD REVIEWS??  NO, ONLY BAD REVIEWS- DO YOU REALIZE THAT IT WOULD MEAN NO ONE WOULD EVER GO ANYWHERE?!   So here's the dirt:  I FOUND MYSELF VERY GRATEFUL FOR THEIR KINDNESS, THEIR VERY CLEAN ROOM, THEIR CONTINUED CONCERN IN MAKING MY STAY COMFORTABLE!My room, at least, had been remodeled.  Fresh paint on the walls, no filthy carpet- they had installed a nice wooden floor, water pressure was great, gave me batteries for the remote without question. No issues with the room card, &amp; they were VERY helpful in suggesting good places to eat &amp; with directions(altho they had quite a few businesses that would deliver to your room).  They had a pool, but I was too tired to go &amp; look at it.     Flip side: bed was very old &amp; worn out, hard as a rock and in the morning, I had what I percieved to be bites!  Sheets seemed to be fresh &amp; I believed they even washed the bedspreads; I do have some allregies, so I may have had a reaction to their soap.   YES, there is a strip joint across the road; it wasn't an issue for me... just don't be dum &amp; let em follow you back to your room, lol. It is NOT the SAFEST area, I don't think- just be aware of your surroundings.  There were a few roaming ner'-do-wells, just mind yourself &amp; don't allow contact.   All in all, I'd stay again, happily- but I'd roll out my own sleeping bag on top of that bed &amp; bring my own sheets &amp; pillow(which I had, thankfully)!  But then again- I usually do; just found myself without them on this trip(well, I thought I was staying with my very haughty relative- NEVER thought their house would be SO bad that it DROVE me out &amp; should be CONDEMNED!!)This was a lifesaver on my trip, because it was far too late to begin a 250 mile drive!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r164403337-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>164403337</t>
+  </si>
+  <si>
+    <t>06/18/2013</t>
+  </si>
+  <si>
+    <t>Beyond nasty</t>
+  </si>
+  <si>
+    <t>When we arrived the hotel looked like a dump once we gotten into our room there was roachs and beetles all over the room the pool was dirty room service didnt even clean the rooms and one day we came back from six flags and house keeping had left our room wide open didnt even shut the door with all of our belongings in the room</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r163418593-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>163418593</t>
+  </si>
+  <si>
+    <t>06/09/2013</t>
+  </si>
+  <si>
+    <t>great value, new rooms</t>
+  </si>
+  <si>
+    <t>i travel alot for work and i was driving though and decided to stop to rest. great staff, and rooms are new to what it seems to me. cant be the price for the rooms. i would recomened this to anyone looking for a nicer motel 6 in the DFW area</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r152206246-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>152206246</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>Everything was excellent</t>
+  </si>
+  <si>
+    <t>I tried staying at the Motel 6 off of Northwest Highway but they were full so I gave this one a try. I was charged only 37 dollars plus tax and the room that I received has to be worth well beyond what I paid for. The building was newly refurbished with brand new rooms and furniture which made my stay excellent. The desk staff was great, the maid staff was great and everything was great. Motel 6 is really stepping up their image and I’m impressed with the outcome.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r63365117-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>63365117</t>
+  </si>
+  <si>
+    <t>05/05/2010</t>
+  </si>
+  <si>
+    <t>AYOR</t>
+  </si>
+  <si>
+    <t>One of the first things that impressed me about the Econolodge here in Dallas is how dedicated the establishment appears to be in celebrating the economic and ethnic diversity of our great country. Secondly, one can hardly complain about the location, nestled as it is against the John Carpenter Freeway, rendering an ease of freeway access that other hostelries can only hope to emulate.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r40714320-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>40714320</t>
+  </si>
+  <si>
+    <t>09/10/2009</t>
+  </si>
+  <si>
+    <t>Not All That Bad</t>
+  </si>
+  <si>
+    <t>I will admit that I have stayed in better and nicer places, but it was still ok.  I was here for only one night, as my other hotel did not have a room for me.  The hotel is old.  That much is apparent as soon as you get out to check in.  There is a "gentlemans club" right across the street and a convience store and Whatburger with in walking distance.  My room was clean but it is needing updating and repairs.  The bathroom was very large.  The bed was kinda hard, but I am used to a much softer mattress.  The breakfast was minal at best.  There is WiFi and a pc with computer access in the lobby.  I did not venture out of my room past night fall, and I kept the door firmly locked.  My room was not working properly at check in but they fixed it right away.  There was a mini fridge and microwave in the room.  When I opened the fridge to put some water in, the smell about knocked me over.  I quickly shut it and left it that way.  There was some damage to the bathroom that I noted.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>I will admit that I have stayed in better and nicer places, but it was still ok.  I was here for only one night, as my other hotel did not have a room for me.  The hotel is old.  That much is apparent as soon as you get out to check in.  There is a "gentlemans club" right across the street and a convience store and Whatburger with in walking distance.  My room was clean but it is needing updating and repairs.  The bathroom was very large.  The bed was kinda hard, but I am used to a much softer mattress.  The breakfast was minal at best.  There is WiFi and a pc with computer access in the lobby.  I did not venture out of my room past night fall, and I kept the door firmly locked.  My room was not working properly at check in but they fixed it right away.  There was a mini fridge and microwave in the room.  When I opened the fridge to put some water in, the smell about knocked me over.  I quickly shut it and left it that way.  There was some damage to the bathroom that I noted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r19516143-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>19516143</t>
+  </si>
+  <si>
+    <t>08/29/2008</t>
+  </si>
+  <si>
+    <t>Walked in and right back out</t>
+  </si>
+  <si>
+    <t>The area around the hotel itself appeared to be a bit seedy -- the establishment across the street looked like a strip club.
+This hotel lacks elevators, so luggage has to be carried to the second floor up very narrow stairs. 
+This hotel is the type where each hotel room opens to the outside, and the "hallway" is located outdoors as well. There does not appear to be much in terms of security besides a deadbolt on your hotel room door, and the rooms towards the back of the hotel definitely didn't feel very secure. This problem was exacerbated by the fact that the door did not seal properly for our room.
+There was a broken fan just lying in the middle of the walkway to our hotel room, forcing us to hoist all our luggage over the fan (and from the dirt on it,it looked like it'd been there for quite a few days) just to get by.
+The room itself was decent sized, but smelled strongly of cleaning agents and mildew. The air conditioner took several tries to start as the knob was loose.
+We basically walked in our room, saw the condition, felt completely uncomfortable, and unsafe, so we walked back out and asked for a refund. While the staff was willing to help us, the manager was incredibly rude. He flat out said "I don't believe you" when we told him we hadn't touched anything in...The area around the hotel itself appeared to be a bit seedy -- the establishment across the street looked like a strip club.This hotel lacks elevators, so luggage has to be carried to the second floor up very narrow stairs. This hotel is the type where each hotel room opens to the outside, and the "hallway" is located outdoors as well. There does not appear to be much in terms of security besides a deadbolt on your hotel room door, and the rooms towards the back of the hotel definitely didn't feel very secure. This problem was exacerbated by the fact that the door did not seal properly for our room.There was a broken fan just lying in the middle of the walkway to our hotel room, forcing us to hoist all our luggage over the fan (and from the dirt on it,it looked like it'd been there for quite a few days) just to get by.The room itself was decent sized, but smelled strongly of cleaning agents and mildew. The air conditioner took several tries to start as the knob was loose.We basically walked in our room, saw the condition, felt completely uncomfortable, and unsafe, so we walked back out and asked for a refund. While the staff was willing to help us, the manager was incredibly rude. He flat out said "I don't believe you" when we told him we hadn't touched anything in the room outside of the door and the air conditioning unit. We told him we could wait for him to inspect the room if he liked, but our check-in to check-out time elapsed was under 30 min -- which would have been faster if we hadn't spent 10 minutes lugging our stuff to our room and then another 10 to come back out.This was a thoroughly unpleasant experience. We managed to find a really nice Marriott hotel located just minutes from Downtown Dallas for just $30 more per night.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>marketrep, Marketing Consultant at Motel 6 Dallas - Market Center, responded to this reviewResponded June 24, 2009</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2009</t>
+  </si>
+  <si>
+    <t>The area around the hotel itself appeared to be a bit seedy -- the establishment across the street looked like a strip club.
+This hotel lacks elevators, so luggage has to be carried to the second floor up very narrow stairs. 
+This hotel is the type where each hotel room opens to the outside, and the "hallway" is located outdoors as well. There does not appear to be much in terms of security besides a deadbolt on your hotel room door, and the rooms towards the back of the hotel definitely didn't feel very secure. This problem was exacerbated by the fact that the door did not seal properly for our room.
+There was a broken fan just lying in the middle of the walkway to our hotel room, forcing us to hoist all our luggage over the fan (and from the dirt on it,it looked like it'd been there for quite a few days) just to get by.
+The room itself was decent sized, but smelled strongly of cleaning agents and mildew. The air conditioner took several tries to start as the knob was loose.
+We basically walked in our room, saw the condition, felt completely uncomfortable, and unsafe, so we walked back out and asked for a refund. While the staff was willing to help us, the manager was incredibly rude. He flat out said "I don't believe you" when we told him we hadn't touched anything in...The area around the hotel itself appeared to be a bit seedy -- the establishment across the street looked like a strip club.This hotel lacks elevators, so luggage has to be carried to the second floor up very narrow stairs. This hotel is the type where each hotel room opens to the outside, and the "hallway" is located outdoors as well. There does not appear to be much in terms of security besides a deadbolt on your hotel room door, and the rooms towards the back of the hotel definitely didn't feel very secure. This problem was exacerbated by the fact that the door did not seal properly for our room.There was a broken fan just lying in the middle of the walkway to our hotel room, forcing us to hoist all our luggage over the fan (and from the dirt on it,it looked like it'd been there for quite a few days) just to get by.The room itself was decent sized, but smelled strongly of cleaning agents and mildew. The air conditioner took several tries to start as the knob was loose.We basically walked in our room, saw the condition, felt completely uncomfortable, and unsafe, so we walked back out and asked for a refund. While the staff was willing to help us, the manager was incredibly rude. He flat out said "I don't believe you" when we told him we hadn't touched anything in the room outside of the door and the air conditioning unit. We told him we could wait for him to inspect the room if he liked, but our check-in to check-out time elapsed was under 30 min -- which would have been faster if we hadn't spent 10 minutes lugging our stuff to our room and then another 10 to come back out.This was a thoroughly unpleasant experience. We managed to find a really nice Marriott hotel located just minutes from Downtown Dallas for just $30 more per night.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1275,1884 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>116</v>
+      </c>
+      <c r="X11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>124</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>148</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X16" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" t="s">
+        <v>166</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>172</v>
+      </c>
+      <c r="O19" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21" t="s">
+        <v>183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>188</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>189</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>86</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" t="s">
+        <v>212</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" t="s">
+        <v>215</v>
+      </c>
+      <c r="K27" t="s">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s">
+        <v>217</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O27" t="s">
+        <v>75</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>219</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>220</v>
+      </c>
+      <c r="J28" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" t="s">
+        <v>222</v>
+      </c>
+      <c r="L28" t="s">
+        <v>223</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>224</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>226</v>
+      </c>
+      <c r="J29" t="s">
+        <v>227</v>
+      </c>
+      <c r="K29" t="s">
+        <v>228</v>
+      </c>
+      <c r="L29" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>230</v>
+      </c>
+      <c r="O29" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>236</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" t="s">
+        <v>240</v>
+      </c>
+      <c r="K31" t="s">
+        <v>241</v>
+      </c>
+      <c r="L31" t="s">
+        <v>242</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>243</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>244</v>
+      </c>
+      <c r="X31" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_561.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_561.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jowanda H</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>We had previously checked in and immediately checked out of another hotel near by and was looking for a cheap but decent place to lay our heads til our great nieces flight came in the next morning. This place was conveniently located near the airport and the staff went above and beyond to accommodate us. There was no blow dryer however they loaned us one and than when the flight was delayed they let us hang out in our room that was suppose to be vacated by 11am until after 12 with no additional charge. Couldn't ask for nicer people. The place is nothing fancy but it is clean and the rooms look upgraded, air was nice and cold and best of all, no dirty ugly carpet.More</t>
   </si>
   <si>
+    <t>Rysgama2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r459235833-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>This place is just ok. There's a lot of riff raft around the motel. The room was so so. I didn't feel comfortable. But because I had to pay for the room in advance I stayed here.  I locked the doors and the deadbolt. The linens on the bed for Were so so with the exception of the top spread. They were dirty with stains. Luckily I had two queen beds and one of the beds looked clean. The bed I didn't sleep in had the stains on the top quilt. There's no amenities. You're lucky to get a bar soap and no TP ( glad I had Kleenex). The only reason I gave it one star is because the front desk people were very nice.More</t>
   </si>
   <si>
+    <t>Ashleylegans</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r448383660-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Roger W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r375537395-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>patricksQ3370FZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r375202136-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>Recently stayed here for 3 days.  Room was recently painted, and remodeled with new furniture and a hard surface floor with no carpet. Also has a small refrigeator in room.  I like this place and usually stay here, but hadn't been in Dallas for 6 months.  It only improved in this time.  I don't think there's a better buy in Dallas for the price,  and it's clean, safe and very convenient.  I didn't take my dogs with me this time, but they don't charge extra at all  for them to stay in the room, which is a big savings.</t>
   </si>
   <si>
+    <t>Pat U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r371803043-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>Needed a place in a hurry that was close to Love Field in Dallas. Big Mistake! Room not clean, parking was tight, stated non smoking rooms but bed spread had cigarette burns, people running around at all hours of night, car alarms going off ayerrs 1:40 in morning,  crickets &amp; bugs in room,holes in Walls. Could not sleep, took for ever for the hot water to reach the faucet, &amp; Could not wait to get out of that place. Luckily we had an early flight. Absolutely the worst motel I have ever stayed at. I really hope the the Motel 6 representatives  disown this place. It's an embarrassment to the Motel 6 franchise. Never, ever will I stay here again!More</t>
   </si>
   <si>
+    <t>gardener19464</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r340138044-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -306,6 +327,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>kittenfaye</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r331978920-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>I had to come to downtown Dallas and stay in a hotel as I live too far north to drive in for the required educational training courses. I would need to get up at 2 AM just to get to the 8AM class. We were blessed to find this location for Motel 6. I felt very safe and I am over 60. It was clean and my room which had a king sized bed was very comfortable. The staff that work there are very kind, helpful and it makes them smile if you tell them that you had a great time and how proud you are that you found a great place to stay when you come to Dallas. I highly recommend Motel 6 at 1625 . Regal Row, Dallas, TX. They have a new hotel and it is an above average for a Motel 6. It is peaceful there also. Bed very comfortable and extremely clean.More</t>
   </si>
   <si>
+    <t>ellietravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r330892560-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -348,6 +375,9 @@
     <t>They promised that they had remodeled... so we gave it another go, but what a strange remodel.  the bathrooms still have BIG holes in the walls and the fixtures are dangling.  Filthy inside and out and way too many suspicious folks wandering about at all hours.  I did see one security guard on patrol but then again, he might have been just cutting through from another job to get to the Grandy's (which is also highly unrecommended -- order a side of immodium a-d!)    Between the domestic squabbes, the prostitutes, the drug deals and lawd knows what else....   unless you're casting for a reality show, skip a meal and stay somewhere else for a few more dollars.    When another review mentioned murders and swat teams and the management's reply was "sorry for the noise".....   you gotta think for yourself.  Run Forrest Run!More</t>
   </si>
   <si>
+    <t>TGSA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r302011132-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -375,6 +405,9 @@
     <t>Basic Motel 6, my room seemed renovated, it was ok. Some strange people hanging around the hotel but I went to bed early, and slept well. Big was my surprise in the morning (6.30am) to see tons of SWAT team members all around the motel, I quickly packed my bags as I was told to stay inside my room. After I while, I did 'venture' outside to leave as quickly as I could, the area around the motel was in 'lock down mode'. I did not know that this area was known to be unsafe, otherwise I would not have stayed. Even better? The killer (see the previous review) was in the room right above mine, saw him drinking with two other guys all afternoon, just as well we did  not talk to each other...Will in future be much more selective about where I am going to stay. Motel 6 have been a big disappointment for me during this trip! They really have to better their game somewhat, or close down!More</t>
   </si>
   <si>
+    <t>Zack C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r301315357-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t>Talk about an exciting experience. Arrived at the hotel and they didn't have the reservation that was called in over the phone. Went to the room and the scary movie scenario kicks in. Light by the door didn't work. Faucet on sink lifted out of the actual sink. Bathroom had a huge hole in the ceiling not sure if that was for extra ventilation from the mold but wasn't charged for that. Was offered drugs outside of my room, and tv was not working front deak clerk came to correct problem scanned for channels still did not work, went to front desk and he denied ever being in the room. 2nd employee came in and actually fixed it. The prostitutes were in the lobby and was asking for the room by the pool so keep your eyea out for that filth also. First night heard noises all night people walking around constantly outside. Second night the fun begins. Laying in bed at 2am and hear what sounded like a car hitting a dumpster however laying there at 6am to see your motel on TV that someone was shot and murdered in room 231 and body was laying on the balcony blood everywhere. Swat shows up at ,7am and is announcing that the person in room 231 they thought the killer was still in there should come out with his hands up this went on til about 10am when they breached...Talk about an exciting experience. Arrived at the hotel and they didn't have the reservation that was called in over the phone. Went to the room and the scary movie scenario kicks in. Light by the door didn't work. Faucet on sink lifted out of the actual sink. Bathroom had a huge hole in the ceiling not sure if that was for extra ventilation from the mold but wasn't charged for that. Was offered drugs outside of my room, and tv was not working front deak clerk came to correct problem scanned for channels still did not work, went to front desk and he denied ever being in the room. 2nd employee came in and actually fixed it. The prostitutes were in the lobby and was asking for the room by the pool so keep your eyea out for that filth also. First night heard noises all night people walking around constantly outside. Second night the fun begins. Laying in bed at 2am and hear what sounded like a car hitting a dumpster however laying there at 6am to see your motel on TV that someone was shot and murdered in room 231 and body was laying on the balcony blood everywhere. Swat shows up at ,7am and is announcing that the person in room 231 they thought the killer was still in there should come out with his hands up this went on til about 10am when they breached the window and found no one inside. So all in all don't stay here unless you want to be the next victim.. Beware not safe to stay here.  http://www.nbcdfw.com/news/local/Man-Fatally-Shot-at-Dallas-Motel-Police-322255051.htmlMore</t>
   </si>
   <si>
+    <t>JamieM857</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r292486308-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -423,6 +459,9 @@
     <t>My boyfriend and I stayed at this hotel earlier in the week and we were only there 45 minutes when we saw a huge roach on the wall. We immediately packed up our things went to the front desk checked out and asked for a refund. Because the guy at the front desk said there was 2 more people in a double room, that we did not have on the reservation he refused to give us a refund and told me to call the next day to speak with the manager. The manager gave me the run around and needles to say I never got my money back and I will not be staying at another motel 6 establishment ever again.More</t>
   </si>
   <si>
+    <t>Prepwade</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r267969819-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -447,6 +486,9 @@
     <t>I booked this room last minute because I needed a room to sleep for a few hours while in Dallas and had my dog with me. The motel is pet friendly and was cheap so I booked it. My expectations were low going in but I was even more disappointed once I arrived. The hotel is in a bad area around several strip joints and I'm pretty sure it's just a hookup stripper motel. The front desk agent left the front doors locked while I checked in and only slid my keys through a little bank teller window at the front of the lobby. Arriving in the room, it had been recently remodeled and would show great in pictures. However, all of the details in the room were dirty and unfinished. The bed was by far the worst mattress I have ever slept on and I am young and can sleep on about anything. The door did not close properly and showed light on all four sides. There was moldy Sheetrock next to the shower, the bathroom sink did not drain. I know this is a cheap motel and you get what you pay for but it was an awful experience and I would never recommend anyone go to this Motel until it has been renovated. It does have potential but for now it is just plain pitiful. More</t>
   </si>
   <si>
+    <t>Xxaaronxx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r265765686-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -465,6 +507,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Brenda T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r265584283-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -489,6 +534,9 @@
     <t>I prefer to stay at motel 6 because the newer look is easily cleaned. This one had some issues that really let me down. It was in serious disrepair. The toilet did not flush properly and ran all night, the molding was rotted and furnishings were just plain dirty.The staff was nice but had a note on the door that said "Be back in 10 minutes" when I arrived.I saw another reviewer years ago posted that gunshots or fireworks went off in the middle of the night. I had the exact same experience. 4 loud pops right in a row that startled me out of sleep. The location felt safe enough to me and the bedding was clean. Excellent wifi ..at least 4 available connections and no problems hooking up or staying connected.More</t>
   </si>
   <si>
+    <t>Randy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r254184792-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -504,6 +552,9 @@
     <t xml:space="preserve">Paint peeling in the bathroom. Tub leaked badly. Water spigot didn't work right, poured out cold water when turned all the way, had to turn back a bit to just get warm water. Floor was not carpeted and was cold. Thankfully the heater worked. </t>
   </si>
   <si>
+    <t>Pilot320ac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r250648101-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -519,6 +570,9 @@
     <t xml:space="preserve">This is a no frills hotel but wow what great value. If you have places to be during the day and only using your hotel to sleep this is your place. Use your money for other exciting things. A bit loud at night but that's not the hotels fault. </t>
   </si>
   <si>
+    <t>liab501</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r247919775-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -537,6 +591,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>MEXICANRICHBOY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r234380475-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -555,6 +612,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Lisa W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r234016108-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -570,6 +630,9 @@
     <t>Though in a convenient location near I-35E and a DART station, it may not have been the best neighborhood, as there is a strip club right across the street. (This doesn't offend me personally, but I know others may take offense.) The lobby was inviting, and the desk clerk was polite and helpful. Our room was on the second floor, but it felt like the stairs were a mile away. The room itself seemed a little run down, but it was clean.  I'd stay there again.</t>
   </si>
   <si>
+    <t>Jitan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r229333774-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -588,6 +651,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>serene2u1912</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r185129204-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -603,6 +669,9 @@
     <t>I got caught in Dallas rush hour after a long day at the JFK assaination site. I jumped off the freeway and came here. The problem for me is the area is bad. The room was sparce but clean. Ok for a few hours before being off to Austin...</t>
   </si>
   <si>
+    <t>MsCable</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r174221136-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -622,6 +691,9 @@
   </si>
   <si>
     <t>I've had good experiences with Motel 6 while traveling with my dog (Mammoth, South Lake Tahoe, Bishop, to name a few) but this location was pretty bad. I pulled into the parking lot where there were a lot of shady characters standing around. Turns out they were trying to figure out what to do with a broken-down truck--repairs commenced in the parking lot later and lasted well into the night. In addition to the broken down truck, there was a disabled, partially disassembled motorcycle parked in the stairwell near the office. The room was missing standard Motel 6 stuff: no phone, no hangers in the closet. Horrid green fluorescent light in the bathroom that made it impossible to put on makeup (I put it on in the car). The handle on the toilet was broken, so the toilet would run and make a lot of noise. The manager, Mike Patel was very nice, but I had the feeling that he'd lost control over the location with all the shady people hanging around. He gave me hangers when I asked for them. Pros are that it is close to Love Field and the car rental locations, the room was clean, Mike was nice (if ineffective). It would be OK for a night, but was hard to take for 3 nights.More</t>
+  </si>
+  <si>
+    <t>Struttybuddy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r172045908-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -650,6 +722,9 @@
      Flip side: bed was very old &amp; worn out, hard as a rock and in the morning, I had what I percieved to be bites!  Sheets seemed to be fresh &amp; I believed they even washed the bedspreads; I do have some allregies, so I may have...08/10/13    Yes, I was desperate.  Visiting a relative who was absolutely FILTHY, and couldn't take it anymore.  Just started driving around- found a nice lil(well kinda big) Biker Bar/grill(Strokers- had GREAT food, maybe 1- 1&amp;1/2 miles away) on Harry Hines &amp; asked around.  Barmaid directed me here, said it wasn't too bad.  Reviews already had me driving right by this place.. WHY IS IT THAT NO ONE EVER MAKES GOOD REVIEWS??  NO, ONLY BAD REVIEWS- DO YOU REALIZE THAT IT WOULD MEAN NO ONE WOULD EVER GO ANYWHERE?!   So here's the dirt:  I FOUND MYSELF VERY GRATEFUL FOR THEIR KINDNESS, THEIR VERY CLEAN ROOM, THEIR CONTINUED CONCERN IN MAKING MY STAY COMFORTABLE!My room, at least, had been remodeled.  Fresh paint on the walls, no filthy carpet- they had installed a nice wooden floor, water pressure was great, gave me batteries for the remote without question. No issues with the room card, &amp; they were VERY helpful in suggesting good places to eat &amp; with directions(altho they had quite a few businesses that would deliver to your room).  They had a pool, but I was too tired to go &amp; look at it.     Flip side: bed was very old &amp; worn out, hard as a rock and in the morning, I had what I percieved to be bites!  Sheets seemed to be fresh &amp; I believed they even washed the bedspreads; I do have some allregies, so I may have had a reaction to their soap.   YES, there is a strip joint across the road; it wasn't an issue for me... just don't be dum &amp; let em follow you back to your room, lol. It is NOT the SAFEST area, I don't think- just be aware of your surroundings.  There were a few roaming ner'-do-wells, just mind yourself &amp; don't allow contact.   All in all, I'd stay again, happily- but I'd roll out my own sleeping bag on top of that bed &amp; bring my own sheets &amp; pillow(which I had, thankfully)!  But then again- I usually do; just found myself without them on this trip(well, I thought I was staying with my very haughty relative- NEVER thought their house would be SO bad that it DROVE me out &amp; should be CONDEMNED!!)This was a lifesaver on my trip, because it was far too late to begin a 250 mile drive!More</t>
   </si>
   <si>
+    <t>tricialicious10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r164403337-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -665,6 +740,9 @@
     <t>When we arrived the hotel looked like a dump once we gotten into our room there was roachs and beetles all over the room the pool was dirty room service didnt even clean the rooms and one day we came back from six flags and house keeping had left our room wide open didnt even shut the door with all of our belongings in the room</t>
   </si>
   <si>
+    <t>Chad S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r163418593-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -683,6 +761,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Austin S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r152206246-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -701,6 +782,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>rbc101</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r63365117-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -719,6 +803,9 @@
     <t>April 2010</t>
   </si>
   <si>
+    <t>TLBowman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r40714320-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -738,6 +825,9 @@
   </si>
   <si>
     <t>I will admit that I have stayed in better and nicer places, but it was still ok.  I was here for only one night, as my other hotel did not have a room for me.  The hotel is old.  That much is apparent as soon as you get out to check in.  There is a "gentlemans club" right across the street and a convience store and Whatburger with in walking distance.  My room was clean but it is needing updating and repairs.  The bathroom was very large.  The bed was kinda hard, but I am used to a much softer mattress.  The breakfast was minal at best.  There is WiFi and a pc with computer access in the lobby.  I did not venture out of my room past night fall, and I kept the door firmly locked.  My room was not working properly at check in but they fixed it right away.  There was a mini fridge and microwave in the room.  When I opened the fridge to put some water in, the smell about knocked me over.  I quickly shut it and left it that way.  There was some damage to the bathroom that I noted.More</t>
+  </si>
+  <si>
+    <t>Janet G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r19516143-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -1279,43 +1369,47 @@
       <c r="A2" t="n">
         <v>5194</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169311</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1333,50 +1427,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5194</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169312</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1390,50 +1488,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5194</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169313</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1447,50 +1549,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5194</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>5595</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1504,50 +1610,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5194</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169314</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1567,50 +1677,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5194</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169315</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1622,56 +1736,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5194</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169316</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1685,50 +1803,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5194</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169317</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1748,50 +1870,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5194</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169318</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1811,50 +1937,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5194</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>29833</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1870,56 +2000,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="X11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5194</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>113047</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1933,50 +2067,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5194</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169319</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -1994,47 +2132,51 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5194</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169320</v>
+      </c>
+      <c r="C14" t="s">
+        <v>147</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -2051,56 +2193,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5194</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>169321</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2114,50 +2260,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5194</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>24107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2175,47 +2325,51 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="X16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5194</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>8855</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
@@ -2244,41 +2398,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5194</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>169322</v>
+      </c>
+      <c r="C18" t="s">
+        <v>178</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
@@ -2307,50 +2465,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5194</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>169323</v>
+      </c>
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="J19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2368,50 +2530,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5194</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>169324</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="J20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2429,50 +2595,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5194</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>813</v>
+      </c>
+      <c r="C21" t="s">
+        <v>198</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -2490,50 +2660,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5194</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>648</v>
+      </c>
+      <c r="C22" t="s">
+        <v>204</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2551,41 +2725,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5194</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>169325</v>
+      </c>
+      <c r="C23" t="s">
+        <v>211</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="J23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
@@ -2614,50 +2792,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5194</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>169326</v>
+      </c>
+      <c r="C24" t="s">
+        <v>217</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="J24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P24" t="n">
         <v>3</v>
@@ -2681,50 +2863,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5194</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>169327</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -2748,41 +2934,45 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5194</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>117539</v>
+      </c>
+      <c r="C26" t="s">
+        <v>232</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="J26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
@@ -2811,50 +3001,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5194</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>10172</v>
+      </c>
+      <c r="C27" t="s">
+        <v>238</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="L27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -2878,50 +3072,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5194</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>169328</v>
+      </c>
+      <c r="C28" t="s">
+        <v>245</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="J28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="L28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -2945,50 +3143,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5194</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>169329</v>
+      </c>
+      <c r="C29" t="s">
+        <v>252</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="J29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="K29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="O29" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3012,50 +3214,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5194</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>169330</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="J30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="K30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3079,50 +3285,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5194</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>16146</v>
+      </c>
+      <c r="C31" t="s">
+        <v>267</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="J31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="K31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="L31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -3144,13 +3354,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="X31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="Y31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_561.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_561.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="381">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Jowanda H</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r565040148-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>98690</t>
+  </si>
+  <si>
+    <t>565040148</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Flight at DAL</t>
+  </si>
+  <si>
+    <t>Stayed here night before flight from Dallas Love Field. Front desk check-in was quick and person working front desk was very pleasant. Changed our reservation to give us a cheaper rate. Room was clean and just basic hotel room. Bed was comfortable. Would stay here again if flying out of Dallas Love Field.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r524954449-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>524954449</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Staff Were Wonderful There. Best Experience. Thank You So Much KP- PK and Up</t>
+  </si>
+  <si>
+    <t>After being refused by Hotel Ramada because of a card issue the staff here at this motel are fantastic. So helpful and friendly. The Indian staff are so nice. Rooms are so nice here too. A tv with a variety of channels. KP, PK and Up were so fantastic and I can thank them so so much for their hostility. Especially Up who drove me to see the Southfork Ranch. So nice. A way better than any staff in the Ramada. You must come and visit me in Ireland sometime soon.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r499544067-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>98690</t>
-  </si>
-  <si>
     <t>499544067</t>
   </si>
   <si>
@@ -180,15 +219,9 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>We had previously checked in and immediately checked out of another hotel near by and was looking for a cheap but decent place to lay our heads til our great nieces flight came in the next morning. This place was conveniently located near the airport and the staff went above and beyond to accommodate us. There was no blow dryer however they loaned us one and than when the flight was delayed they let us hang out in our room that was suppose to be vacated by 11am until after 12 with no additional charge. Couldn't ask for nicer people. The place is nothing fancy but it is clean and the rooms look upgraded, air was nice and cold and best of all, no dirty ugly carpet.More</t>
   </si>
   <si>
-    <t>Rysgama2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r459235833-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,15 +240,9 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>This place is just ok. There's a lot of riff raft around the motel. The room was so so. I didn't feel comfortable. But because I had to pay for the room in advance I stayed here.  I locked the doors and the deadbolt. The linens on the bed for Were so so with the exception of the top spread. They were dirty with stains. Luckily I had two queen beds and one of the beds looked clean. The bed I didn't sleep in had the stains on the top quilt. There's no amenities. You're lucky to get a bar soap and no TP ( glad I had Kleenex). The only reason I gave it one star is because the front desk people were very nice.More</t>
   </si>
   <si>
-    <t>Ashleylegans</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r448383660-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -234,7 +261,46 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t>Roger W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r422883746-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>422883746</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just ok. Could be better. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rooms look renovated and decent, but more need fridges and microwaves. Exterior needs some work. Area feels a bit seedy, especially with cabaret across the street. Very basic food offerings from vending machines. Close to highways, gas station, Love Field, and fast food. </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r376222756-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>376222756</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Stay!</t>
+  </si>
+  <si>
+    <t>I saw a number of negative reviews after booking a room, scared me a bit. There were also positive reviews that appeared to be in direct conflict.Close to freeway, a light sleeper *might* be able to hear road or even rail noises – I did not. Parking area is well lighted, security on duty at night. Staff was polite &amp; courteous.Not all rooms have fridges. Towels are thin. Soap, but no shampoo or other freebies. Bed was comfortable, wood/linoleum floors give clean impression. I found nothing seriously wrong… THIS IS A BUDGET HOTEL, price was right &amp; I can pack my own toiletries! Stayed 3 nights &amp; YES, I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I saw a number of negative reviews after booking a room, scared me a bit. There were also positive reviews that appeared to be in direct conflict.Close to freeway, a light sleeper *might* be able to hear road or even rail noises – I did not. Parking area is well lighted, security on duty at night. Staff was polite &amp; courteous.Not all rooms have fridges. Towels are thin. Soap, but no shampoo or other freebies. Bed was comfortable, wood/linoleum floors give clean impression. I found nothing seriously wrong… THIS IS A BUDGET HOTEL, price was right &amp; I can pack my own toiletries! Stayed 3 nights &amp; YES, I would stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r375537395-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -252,15 +318,6 @@
     <t>My recent stay at this Motel 6 in Dallas was simply wonderful! The staff under the supervision of the Front Desk Manager Mr. P.K. was very welcoming and efficient. The room was spacious, clean, stocked with everything a person needs on a business trip and the beds was simply divine; I didn't toss and turn during the night but slept like a baby! I'm very grateful for my visit at this Motel 6 and I'll certainly be back very soon. As far as I'm concerned, this is my hotel destination in Dallas!</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>patricksQ3370FZ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r375202136-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -276,9 +333,6 @@
     <t>Recently stayed here for 3 days.  Room was recently painted, and remodeled with new furniture and a hard surface floor with no carpet. Also has a small refrigeator in room.  I like this place and usually stay here, but hadn't been in Dallas for 6 months.  It only improved in this time.  I don't think there's a better buy in Dallas for the price,  and it's clean, safe and very convenient.  I didn't take my dogs with me this time, but they don't charge extra at all  for them to stay in the room, which is a big savings.</t>
   </si>
   <si>
-    <t>Pat U</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r371803043-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -306,7 +360,40 @@
     <t>Needed a place in a hurry that was close to Love Field in Dallas. Big Mistake! Room not clean, parking was tight, stated non smoking rooms but bed spread had cigarette burns, people running around at all hours of night, car alarms going off ayerrs 1:40 in morning,  crickets &amp; bugs in room,holes in Walls. Could not sleep, took for ever for the hot water to reach the faucet, &amp; Could not wait to get out of that place. Luckily we had an early flight. Absolutely the worst motel I have ever stayed at. I really hope the the Motel 6 representatives  disown this place. It's an embarrassment to the Motel 6 franchise. Never, ever will I stay here again!More</t>
   </si>
   <si>
-    <t>gardener19464</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r362325854-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>362325854</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>Ideal clean and comfortable</t>
+  </si>
+  <si>
+    <t>Located on I-35 its not that far from everything you can either get an Uber to Downtown or I found that the nearest Dart train station called Burbank is only a 20-25 minute walk if you don't mind doing that I found the walk very nice especially in the lovely sunshine I did this each day loved it. The rooms were clean and tidied each day fresh towels beds made up nicely, bed was very comfortable even more than my own bed. I really enjoyed my stay of 8 days much preferred it to paying high end downtown hotels its great for buget stays buisness or overnight stop off's was peaceful and quiet also.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Located on I-35 its not that far from everything you can either get an Uber to Downtown or I found that the nearest Dart train station called Burbank is only a 20-25 minute walk if you don't mind doing that I found the walk very nice especially in the lovely sunshine I did this each day loved it. The rooms were clean and tidied each day fresh towels beds made up nicely, bed was very comfortable even more than my own bed. I really enjoyed my stay of 8 days much preferred it to paying high end downtown hotels its great for buget stays buisness or overnight stop off's was peaceful and quiet also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r356332827-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>356332827</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>Meh.</t>
+  </si>
+  <si>
+    <t>Cleanish and safe as long as you come and go during daylight. There was a strip club across the street, to give you an idea of the neighborhood it's in. It was fine for what we needed, which was a place to lay our heads for a few hours while passing through town, but I would not have wanted to stay any longer than that. Just an overall seedy vibe, from the cranky desk attendant to the nasty coffee.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r340138044-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -327,9 +414,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>kittenfaye</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r331978920-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -351,9 +435,6 @@
     <t>I had to come to downtown Dallas and stay in a hotel as I live too far north to drive in for the required educational training courses. I would need to get up at 2 AM just to get to the 8AM class. We were blessed to find this location for Motel 6. I felt very safe and I am over 60. It was clean and my room which had a king sized bed was very comfortable. The staff that work there are very kind, helpful and it makes them smile if you tell them that you had a great time and how proud you are that you found a great place to stay when you come to Dallas. I highly recommend Motel 6 at 1625 . Regal Row, Dallas, TX. They have a new hotel and it is an above average for a Motel 6. It is peaceful there also. Bed very comfortable and extremely clean.More</t>
   </si>
   <si>
-    <t>ellietravels</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r330892560-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -375,7 +456,58 @@
     <t>They promised that they had remodeled... so we gave it another go, but what a strange remodel.  the bathrooms still have BIG holes in the walls and the fixtures are dangling.  Filthy inside and out and way too many suspicious folks wandering about at all hours.  I did see one security guard on patrol but then again, he might have been just cutting through from another job to get to the Grandy's (which is also highly unrecommended -- order a side of immodium a-d!)    Between the domestic squabbes, the prostitutes, the drug deals and lawd knows what else....   unless you're casting for a reality show, skip a meal and stay somewhere else for a few more dollars.    When another review mentioned murders and swat teams and the management's reply was "sorry for the noise".....   you gotta think for yourself.  Run Forrest Run!More</t>
   </si>
   <si>
-    <t>TGSA</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r324768366-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>324768366</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Don't even think about it</t>
+  </si>
+  <si>
+    <t>We booked the motel because of a nice apperance on the internet and Ok-rewievs. We took a rental car to get there from the airport DFW. First of all it is located opposite a strip club. The lobby had a very sharp stench like they were trying to cover up other smells (mold?). The guy at the recetion was very friendly. When we went around to our room there were a lot of shady looking men lurking outside-i guess construction workers or something that stayed there for a couple of nights. The room was sacious but really run down, we think we saw a bed bug but i'm not sure. No hair dryer in our room but enough towels, the bathroom was really old too. The TV was not working. Sometime in the middle of the night our neighbours started to get up to go to the airport i guess. It sounded like they were standing next to our bed. And one lady started talking on her phone right outside. You could follow the whole conversation.So- nothing I would recommend to my friends or family. Stay away is my advice- spend a little bit more money and have a nice hotelroom you can shut your eyes in and don't worry.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Dallas - Market Center, responded to this reviewResponded November 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2015</t>
+  </si>
+  <si>
+    <t>We booked the motel because of a nice apperance on the internet and Ok-rewievs. We took a rental car to get there from the airport DFW. First of all it is located opposite a strip club. The lobby had a very sharp stench like they were trying to cover up other smells (mold?). The guy at the recetion was very friendly. When we went around to our room there were a lot of shady looking men lurking outside-i guess construction workers or something that stayed there for a couple of nights. The room was sacious but really run down, we think we saw a bed bug but i'm not sure. No hair dryer in our room but enough towels, the bathroom was really old too. The TV was not working. Sometime in the middle of the night our neighbours started to get up to go to the airport i guess. It sounded like they were standing next to our bed. And one lady started talking on her phone right outside. You could follow the whole conversation.So- nothing I would recommend to my friends or family. Stay away is my advice- spend a little bit more money and have a nice hotelroom you can shut your eyes in and don't worry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r313690173-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>313690173</t>
+  </si>
+  <si>
+    <t>09/25/2015</t>
+  </si>
+  <si>
+    <t>One of worst hotel experiences</t>
+  </si>
+  <si>
+    <t>Possibly one of the worst experiences ever. First room, 104 was horrible. The smell hits once you enter. Very, very visible mild. The photos on this sight do it no justice. Toilet had urine in it and did not flush. Parts to repair the toilet were left on the sink. We immediately requested another room. 108, the experience was worse. This time a puddle of liquid leading from the sink to the toilet. And the mild was even more pronounced. Toilet paper was wet. And the humidity was so thick in the room you could feel it. Almost like a sauna. Immediately requested a refund and while going through the process was informed by another occupant that his four tickets to the Dallas Cowboys game had been pilfered from FedEx. He advised management and the tickets magically appeared and a staff member was sent him. Ended up going to the Crown downtown and it was well worth the price. This hotel was a disgrace. Beware the price and be aware that the photos you see from reviewers actually look better then real life. I never even considered laying on the beds. I travel a lot and this was the worst metro hotel I have ever been to. Also be advised it's located across from two strip clubs. Don't let the location next to Love fool you. Horrible. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Dallas - Market Center, responded to this reviewResponded September 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2015</t>
+  </si>
+  <si>
+    <t>Possibly one of the worst experiences ever. First room, 104 was horrible. The smell hits once you enter. Very, very visible mild. The photos on this sight do it no justice. Toilet had urine in it and did not flush. Parts to repair the toilet were left on the sink. We immediately requested another room. 108, the experience was worse. This time a puddle of liquid leading from the sink to the toilet. And the mild was even more pronounced. Toilet paper was wet. And the humidity was so thick in the room you could feel it. Almost like a sauna. Immediately requested a refund and while going through the process was informed by another occupant that his four tickets to the Dallas Cowboys game had been pilfered from FedEx. He advised management and the tickets magically appeared and a staff member was sent him. Ended up going to the Crown downtown and it was well worth the price. This hotel was a disgrace. Beware the price and be aware that the photos you see from reviewers actually look better then real life. I never even considered laying on the beds. I travel a lot and this was the worst metro hotel I have ever been to. Also be advised it's located across from two strip clubs. Don't let the location next to Love fool you. Horrible. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r302011132-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -405,9 +537,6 @@
     <t>Basic Motel 6, my room seemed renovated, it was ok. Some strange people hanging around the hotel but I went to bed early, and slept well. Big was my surprise in the morning (6.30am) to see tons of SWAT team members all around the motel, I quickly packed my bags as I was told to stay inside my room. After I while, I did 'venture' outside to leave as quickly as I could, the area around the motel was in 'lock down mode'. I did not know that this area was known to be unsafe, otherwise I would not have stayed. Even better? The killer (see the previous review) was in the room right above mine, saw him drinking with two other guys all afternoon, just as well we did  not talk to each other...Will in future be much more selective about where I am going to stay. Motel 6 have been a big disappointment for me during this trip! They really have to better their game somewhat, or close down!More</t>
   </si>
   <si>
-    <t>Zack C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r301315357-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -423,15 +552,9 @@
     <t>Talk about an exciting experience. Arrived at the hotel and they didn't have the reservation that was called in over the phone. Went to the room and the scary movie scenario kicks in. Light by the door didn't work. Faucet on sink lifted out of the actual sink. Bathroom had a huge hole in the ceiling not sure if that was for extra ventilation from the mold but wasn't charged for that. Was offered drugs outside of my room, and tv was not working front deak clerk came to correct problem scanned for channels still did not work, went to front desk and he denied ever being in the room. 2nd employee came in and actually fixed it. The prostitutes were in the lobby and was asking for the room by the pool so keep your eyea out for that filth also. First night heard noises all night people walking around constantly outside. Second night the fun begins. Laying in bed at 2am and hear what sounded like a car hitting a dumpster however laying there at 6am to see your motel on TV that someone was shot and murdered in room 231 and body was laying on the balcony blood everywhere. Swat shows up at ,7am and is announcing that the person in room 231 they thought the killer was still in there should come out with his hands up this went on til about 10am when they breached...Talk about an exciting experience. Arrived at the hotel and they didn't have the reservation that was called in over the phone. Went to the room and the scary movie scenario kicks in. Light by the door didn't work. Faucet on sink lifted out of the actual sink. Bathroom had a huge hole in the ceiling not sure if that was for extra ventilation from the mold but wasn't charged for that. Was offered drugs outside of my room, and tv was not working front deak clerk came to correct problem scanned for channels still did not work, went to front desk and he denied ever being in the room. 2nd employee came in and actually fixed it. The prostitutes were in the lobby and was asking for the room by the pool so keep your eyea out for that filth also. First night heard noises all night people walking around constantly outside. Second night the fun begins. Laying in bed at 2am and hear what sounded like a car hitting a dumpster however laying there at 6am to see your motel on TV that someone was shot and murdered in room 231 and body was laying on the balcony blood everywhere. Swat shows up at ,7am and is announcing that the person in room 231 they thought the killer was still in there should come out with his hands up this went on til about 10am when they breached the window and found no one inside. So all in all don't stay here unless you want to be the next victim.. Beware not safe to stay here.  http://www.nbcdfw.com/news/local/Man-Fatally-Shot-at-Dallas-Motel-Police-322255051.htmlMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Talk about an exciting experience. Arrived at the hotel and they didn't have the reservation that was called in over the phone. Went to the room and the scary movie scenario kicks in. Light by the door didn't work. Faucet on sink lifted out of the actual sink. Bathroom had a huge hole in the ceiling not sure if that was for extra ventilation from the mold but wasn't charged for that. Was offered drugs outside of my room, and tv was not working front deak clerk came to correct problem scanned for channels still did not work, went to front desk and he denied ever being in the room. 2nd employee came in and actually fixed it. The prostitutes were in the lobby and was asking for the room by the pool so keep your eyea out for that filth also. First night heard noises all night people walking around constantly outside. Second night the fun begins. Laying in bed at 2am and hear what sounded like a car hitting a dumpster however laying there at 6am to see your motel on TV that someone was shot and murdered in room 231 and body was laying on the balcony blood everywhere. Swat shows up at ,7am and is announcing that the person in room 231 they thought the killer was still in there should come out with his hands up this went on til about 10am when they breached...Talk about an exciting experience. Arrived at the hotel and they didn't have the reservation that was called in over the phone. Went to the room and the scary movie scenario kicks in. Light by the door didn't work. Faucet on sink lifted out of the actual sink. Bathroom had a huge hole in the ceiling not sure if that was for extra ventilation from the mold but wasn't charged for that. Was offered drugs outside of my room, and tv was not working front deak clerk came to correct problem scanned for channels still did not work, went to front desk and he denied ever being in the room. 2nd employee came in and actually fixed it. The prostitutes were in the lobby and was asking for the room by the pool so keep your eyea out for that filth also. First night heard noises all night people walking around constantly outside. Second night the fun begins. Laying in bed at 2am and hear what sounded like a car hitting a dumpster however laying there at 6am to see your motel on TV that someone was shot and murdered in room 231 and body was laying on the balcony blood everywhere. Swat shows up at ,7am and is announcing that the person in room 231 they thought the killer was still in there should come out with his hands up this went on til about 10am when they breached the window and found no one inside. So all in all don't stay here unless you want to be the next victim.. Beware not safe to stay here.  http://www.nbcdfw.com/news/local/Man-Fatally-Shot-at-Dallas-Motel-Police-322255051.htmlMore</t>
   </si>
   <si>
-    <t>JamieM857</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r292486308-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -459,7 +582,34 @@
     <t>My boyfriend and I stayed at this hotel earlier in the week and we were only there 45 minutes when we saw a huge roach on the wall. We immediately packed up our things went to the front desk checked out and asked for a refund. Because the guy at the front desk said there was 2 more people in a double room, that we did not have on the reservation he refused to give us a refund and told me to call the next day to speak with the manager. The manager gave me the run around and needles to say I never got my money back and I will not be staying at another motel 6 establishment ever again.More</t>
   </si>
   <si>
-    <t>Prepwade</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r286820404-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>286820404</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay</t>
+  </si>
+  <si>
+    <t>The staff was friendly.  The room I had was clean and ready when I arrived.  There were plenty of towels and lots of cable channels.  I stayed on 7/4/2015 and it was very quiet.  There is a Whataburger across the street and a convenience store next door.  There is also free wi-fi available.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r286432998-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>286432998</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Pet Friendly</t>
+  </si>
+  <si>
+    <t>The rooms were nice sized and clean. Thankfully I didn't plan on using the pool, because the water was questionable. Maid service.... I guess they only clean every other day?  However the manager is very friendly and tries to accommodate your needs for the type of room. Never stay there over the 4th of July, fireworks sounded like you were in a war zone</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r267969819-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -486,9 +636,6 @@
     <t>I booked this room last minute because I needed a room to sleep for a few hours while in Dallas and had my dog with me. The motel is pet friendly and was cheap so I booked it. My expectations were low going in but I was even more disappointed once I arrived. The hotel is in a bad area around several strip joints and I'm pretty sure it's just a hookup stripper motel. The front desk agent left the front doors locked while I checked in and only slid my keys through a little bank teller window at the front of the lobby. Arriving in the room, it had been recently remodeled and would show great in pictures. However, all of the details in the room were dirty and unfinished. The bed was by far the worst mattress I have ever slept on and I am young and can sleep on about anything. The door did not close properly and showed light on all four sides. There was moldy Sheetrock next to the shower, the bathroom sink did not drain. I know this is a cheap motel and you get what you pay for but it was an awful experience and I would never recommend anyone go to this Motel until it has been renovated. It does have potential but for now it is just plain pitiful. More</t>
   </si>
   <si>
-    <t>Xxaaronxx</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r265765686-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -507,9 +654,6 @@
     <t>April 2015</t>
   </si>
   <si>
-    <t>Brenda T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r265584283-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -534,7 +678,37 @@
     <t>I prefer to stay at motel 6 because the newer look is easily cleaned. This one had some issues that really let me down. It was in serious disrepair. The toilet did not flush properly and ran all night, the molding was rotted and furnishings were just plain dirty.The staff was nice but had a note on the door that said "Be back in 10 minutes" when I arrived.I saw another reviewer years ago posted that gunshots or fireworks went off in the middle of the night. I had the exact same experience. 4 loud pops right in a row that startled me out of sleep. The location felt safe enough to me and the bedding was clean. Excellent wifi ..at least 4 available connections and no problems hooking up or staying connected.More</t>
   </si>
   <si>
-    <t>Randy C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r256563374-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>256563374</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>Body lice! !!! Filthy!</t>
+  </si>
+  <si>
+    <t>Do not stay here! The sheets had not been changed and were infested with body lice! The sink and toilet leaked. They was pubic hair and dirt in the need. The employees were very rude about it and managment refused to refund us. It was a nightmare!</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r256047572-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>256047572</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>CLEAN, SAFE &amp; DOGS ALLOWED</t>
+  </si>
+  <si>
+    <t>Very gracious &amp; friendly service.  Clean, convenient &amp; safe rooms. WiFi free but slow &amp; intermittent.   No extra charge for 2 large dogs.  Have stayed there 4 times &amp; consistently pleased.  Nothing better In Dallas for the price.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r254184792-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -552,9 +726,6 @@
     <t xml:space="preserve">Paint peeling in the bathroom. Tub leaked badly. Water spigot didn't work right, poured out cold water when turned all the way, had to turn back a bit to just get warm water. Floor was not carpeted and was cold. Thankfully the heater worked. </t>
   </si>
   <si>
-    <t>Pilot320ac</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r250648101-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -570,9 +741,6 @@
     <t xml:space="preserve">This is a no frills hotel but wow what great value. If you have places to be during the day and only using your hotel to sleep this is your place. Use your money for other exciting things. A bit loud at night but that's not the hotels fault. </t>
   </si>
   <si>
-    <t>liab501</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r247919775-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -591,7 +759,37 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>MEXICANRICHBOY</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r246184882-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>246184882</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Just right for the price</t>
+  </si>
+  <si>
+    <t>Nice, newly renovated rooms.  Outside was kinda run down looking and dirty. The room was nice and front desk was pleasant.  I lost a room key and wasn't charged extra. No charge for cancellations or to bring my 2 dogs.  The staff didn't bother us when we weren't out by the 11 am check out. I would stay here again.  And it's only 10 mins from downtown.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r244555857-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>244555857</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Bed bugs</t>
+  </si>
+  <si>
+    <t>after laying in the bed for 20 minutes I noticed there were about 5-6 bed bugs around me. I immediately packed my bags and went to the front desk to ask for a refund. They refused to refund me for the room and would only transfer to a different room. I inspected the second room very thoroughly and it did not seem to have any bugs, however a very loud party was going on in the room next to me until 4:30am. I had a big job interview the next day and am now covered in bed bug bites. I had to take my suit to the dry cleaner and thoroughly clean all my clothes and suitcase in order to prevent them from coming into my house. This was the LEAST relaxing hotel stay I have ever had. The room number with the bugs was 261. I stayed on December 9. Please avoid this room unless you want to be covered in itchy bites. MoreShow less</t>
+  </si>
+  <si>
+    <t>after laying in the bed for 20 minutes I noticed there were about 5-6 bed bugs around me. I immediately packed my bags and went to the front desk to ask for a refund. They refused to refund me for the room and would only transfer to a different room. I inspected the second room very thoroughly and it did not seem to have any bugs, however a very loud party was going on in the room next to me until 4:30am. I had a big job interview the next day and am now covered in bed bug bites. I had to take my suit to the dry cleaner and thoroughly clean all my clothes and suitcase in order to prevent them from coming into my house. This was the LEAST relaxing hotel stay I have ever had. The room number with the bugs was 261. I stayed on December 9. Please avoid this room unless you want to be covered in itchy bites. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r234380475-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -612,9 +810,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>Lisa W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r234016108-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -630,9 +825,6 @@
     <t>Though in a convenient location near I-35E and a DART station, it may not have been the best neighborhood, as there is a strip club right across the street. (This doesn't offend me personally, but I know others may take offense.) The lobby was inviting, and the desk clerk was polite and helpful. Our room was on the second floor, but it felt like the stairs were a mile away. The room itself seemed a little run down, but it was clean.  I'd stay there again.</t>
   </si>
   <si>
-    <t>Jitan P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r229333774-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -651,7 +843,40 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>serene2u1912</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r222422296-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>222422296</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Worth the price</t>
+  </si>
+  <si>
+    <t>Stayed here two nights while passing thru Dallas.  My room was clean and well maintained.  It seems my room was recently updated with new flooring and paint.  The towels and linens checked out fine.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r190221151-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>190221151</t>
+  </si>
+  <si>
+    <t>01/08/2014</t>
+  </si>
+  <si>
+    <t>Good enough for that price</t>
+  </si>
+  <si>
+    <t>I went there at the beginning of January as part of my travel through Texas. In my opinion it is a good location for such a low price. The rooms are clean, you can sleep well, the shower works well and the location is good; located directly at I-35, near Love Field and near a tram/trolley stop, so you can walk there within like 20 minutes and take a fast ride to Downtown. Service is ok. I just didn't like that whenever I returned, the key wasn't working so I had to go to the office.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r185129204-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -669,9 +894,6 @@
     <t>I got caught in Dallas rush hour after a long day at the JFK assaination site. I jumped off the freeway and came here. The problem for me is the area is bad. The room was sparce but clean. Ok for a few hours before being off to Austin...</t>
   </si>
   <si>
-    <t>MsCable</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r174221136-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -691,9 +913,6 @@
   </si>
   <si>
     <t>I've had good experiences with Motel 6 while traveling with my dog (Mammoth, South Lake Tahoe, Bishop, to name a few) but this location was pretty bad. I pulled into the parking lot where there were a lot of shady characters standing around. Turns out they were trying to figure out what to do with a broken-down truck--repairs commenced in the parking lot later and lasted well into the night. In addition to the broken down truck, there was a disabled, partially disassembled motorcycle parked in the stairwell near the office. The room was missing standard Motel 6 stuff: no phone, no hangers in the closet. Horrid green fluorescent light in the bathroom that made it impossible to put on makeup (I put it on in the car). The handle on the toilet was broken, so the toilet would run and make a lot of noise. The manager, Mike Patel was very nice, but I had the feeling that he'd lost control over the location with all the shady people hanging around. He gave me hangers when I asked for them. Pros are that it is close to Love Field and the car rental locations, the room was clean, Mike was nice (if ineffective). It would be OK for a night, but was hard to take for 3 nights.More</t>
-  </si>
-  <si>
-    <t>Struttybuddy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r172045908-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -722,7 +941,34 @@
      Flip side: bed was very old &amp; worn out, hard as a rock and in the morning, I had what I percieved to be bites!  Sheets seemed to be fresh &amp; I believed they even washed the bedspreads; I do have some allregies, so I may have...08/10/13    Yes, I was desperate.  Visiting a relative who was absolutely FILTHY, and couldn't take it anymore.  Just started driving around- found a nice lil(well kinda big) Biker Bar/grill(Strokers- had GREAT food, maybe 1- 1&amp;1/2 miles away) on Harry Hines &amp; asked around.  Barmaid directed me here, said it wasn't too bad.  Reviews already had me driving right by this place.. WHY IS IT THAT NO ONE EVER MAKES GOOD REVIEWS??  NO, ONLY BAD REVIEWS- DO YOU REALIZE THAT IT WOULD MEAN NO ONE WOULD EVER GO ANYWHERE?!   So here's the dirt:  I FOUND MYSELF VERY GRATEFUL FOR THEIR KINDNESS, THEIR VERY CLEAN ROOM, THEIR CONTINUED CONCERN IN MAKING MY STAY COMFORTABLE!My room, at least, had been remodeled.  Fresh paint on the walls, no filthy carpet- they had installed a nice wooden floor, water pressure was great, gave me batteries for the remote without question. No issues with the room card, &amp; they were VERY helpful in suggesting good places to eat &amp; with directions(altho they had quite a few businesses that would deliver to your room).  They had a pool, but I was too tired to go &amp; look at it.     Flip side: bed was very old &amp; worn out, hard as a rock and in the morning, I had what I percieved to be bites!  Sheets seemed to be fresh &amp; I believed they even washed the bedspreads; I do have some allregies, so I may have had a reaction to their soap.   YES, there is a strip joint across the road; it wasn't an issue for me... just don't be dum &amp; let em follow you back to your room, lol. It is NOT the SAFEST area, I don't think- just be aware of your surroundings.  There were a few roaming ner'-do-wells, just mind yourself &amp; don't allow contact.   All in all, I'd stay again, happily- but I'd roll out my own sleeping bag on top of that bed &amp; bring my own sheets &amp; pillow(which I had, thankfully)!  But then again- I usually do; just found myself without them on this trip(well, I thought I was staying with my very haughty relative- NEVER thought their house would be SO bad that it DROVE me out &amp; should be CONDEMNED!!)This was a lifesaver on my trip, because it was far too late to begin a 250 mile drive!More</t>
   </si>
   <si>
-    <t>tricialicious10</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r171352188-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>171352188</t>
+  </si>
+  <si>
+    <t>08/08/2013</t>
+  </si>
+  <si>
+    <t>Nice, Pet Friendly</t>
+  </si>
+  <si>
+    <t>This was a nice, clean, pet friendly stay. No questions asked on pets and no pet fees. The room was clean and updated. We were only in town for a short stay, but would have been sufficient for a longer stay. Enjoyed it and would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r166766303-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>166766303</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>If you like strippers and nasty mattresses this is the place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service was good. Check in fast and easy. Strip club right across the street....ugh. Heard either a gun shot or fireworks in middle of the night. Then around 4 am a woman came running through screaming and yelling. I was afraid to look out. Then next day sheet had slipped off since there are no fitted sheets and there was a horrible nasty stain on the mattress. Ew. And the room online said 41 and I got charged 57. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r164403337-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -740,9 +986,6 @@
     <t>When we arrived the hotel looked like a dump once we gotten into our room there was roachs and beetles all over the room the pool was dirty room service didnt even clean the rooms and one day we came back from six flags and house keeping had left our room wide open didnt even shut the door with all of our belongings in the room</t>
   </si>
   <si>
-    <t>Chad S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r163418593-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -761,9 +1004,6 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>Austin S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r152206246-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -782,7 +1022,48 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>rbc101</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r123186730-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>123186730</t>
+  </si>
+  <si>
+    <t>01/16/2012</t>
+  </si>
+  <si>
+    <t>Dirty dirty and broken down.</t>
+  </si>
+  <si>
+    <t>I know this hotel has gotten average rating but, our room was very dirty hair in the tub, FECAL matter or BLOOD on the toilet lid and the inroom safe door was not working and it was filled with screws and hardware parts.  It would not close or stay closed let alone lock. The baby crib we asked for was in the room when we got there but,it was the small size pack n play not the standand size pack n plays.  Luckily our daughter is small at a yr or she would not have fit in it.  Suprise suprise it was broke too.  Yep one side would not stay up.   Oh there was also a connecting room and you could hear every word they were saying.
+The message light was not working on the phone and we were expecting an important call.  I called the friends I was waiting for a call from and they said they called the hotel lobby and that they would leave a message for us.  Well I went outside and found a piece of paper folded up and looked on it and it was mispelling of our name and a number with the friends name on it mispelled as well.  I showed the friends it and they said that was not even the right # anyways.  No message just a wrong spelled name and wrong # and it was on the ground 3 rooms...I know this hotel has gotten average rating but, our room was very dirty hair in the tub, FECAL matter or BLOOD on the toilet lid and the inroom safe door was not working and it was filled with screws and hardware parts.  It would not close or stay closed let alone lock. The baby crib we asked for was in the room when we got there but,it was the small size pack n play not the standand size pack n plays.  Luckily our daughter is small at a yr or she would not have fit in it.  Suprise suprise it was broke too.  Yep one side would not stay up.   Oh there was also a connecting room and you could hear every word they were saying.The message light was not working on the phone and we were expecting an important call.  I called the friends I was waiting for a call from and they said they called the hotel lobby and that they would leave a message for us.  Well I went outside and found a piece of paper folded up and looked on it and it was mispelling of our name and a number with the friends name on it mispelled as well.  I showed the friends it and they said that was not even the right # anyways.  No message just a wrong spelled name and wrong # and it was on the ground 3 rooms down outside.  Unbelievable.  They couldn't even knock on the door to deliver it.  It was not worth the location to the airport.  We will not be staying here ever again.  Luckily we went across the street to Denny and were treated much better for dinner.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I know this hotel has gotten average rating but, our room was very dirty hair in the tub, FECAL matter or BLOOD on the toilet lid and the inroom safe door was not working and it was filled with screws and hardware parts.  It would not close or stay closed let alone lock. The baby crib we asked for was in the room when we got there but,it was the small size pack n play not the standand size pack n plays.  Luckily our daughter is small at a yr or she would not have fit in it.  Suprise suprise it was broke too.  Yep one side would not stay up.   Oh there was also a connecting room and you could hear every word they were saying.
+The message light was not working on the phone and we were expecting an important call.  I called the friends I was waiting for a call from and they said they called the hotel lobby and that they would leave a message for us.  Well I went outside and found a piece of paper folded up and looked on it and it was mispelling of our name and a number with the friends name on it mispelled as well.  I showed the friends it and they said that was not even the right # anyways.  No message just a wrong spelled name and wrong # and it was on the ground 3 rooms...I know this hotel has gotten average rating but, our room was very dirty hair in the tub, FECAL matter or BLOOD on the toilet lid and the inroom safe door was not working and it was filled with screws and hardware parts.  It would not close or stay closed let alone lock. The baby crib we asked for was in the room when we got there but,it was the small size pack n play not the standand size pack n plays.  Luckily our daughter is small at a yr or she would not have fit in it.  Suprise suprise it was broke too.  Yep one side would not stay up.   Oh there was also a connecting room and you could hear every word they were saying.The message light was not working on the phone and we were expecting an important call.  I called the friends I was waiting for a call from and they said they called the hotel lobby and that they would leave a message for us.  Well I went outside and found a piece of paper folded up and looked on it and it was mispelling of our name and a number with the friends name on it mispelled as well.  I showed the friends it and they said that was not even the right # anyways.  No message just a wrong spelled name and wrong # and it was on the ground 3 rooms down outside.  Unbelievable.  They couldn't even knock on the door to deliver it.  It was not worth the location to the airport.  We will not be staying here ever again.  Luckily we went across the street to Denny and were treated much better for dinner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r72779274-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>72779274</t>
+  </si>
+  <si>
+    <t>07/28/2010</t>
+  </si>
+  <si>
+    <t>Good deal</t>
+  </si>
+  <si>
+    <t>I have to disagree with the negative reviews. Having tired of paying higher rates for motels that felt a little more secure and had a better name, I decided to try out this Econo Lodge. I was pleasantly surprised. The bed was comfortable. The channel selection on its Direct TV feed was large. There was plenty of light &amp; workspace in the room and the bathroom was great - well lit and quite large.  I will definitely stay here again. Staying in the adjoining rooms were roofers and other general contractors.  No issues with security.  I will pay higher prices at the chain that promises you a great night's sleep, LCD TVs, and tasty cinnamon rolls when I feel like doubling the cost of a night's stay. When it's time for business and saving cash, this Econo Lodge was perfect.Lastly, I also enjoyed parking my car right outside my door. I hadn't experienced that perk at the higher priced chains.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>I have to disagree with the negative reviews. Having tired of paying higher rates for motels that felt a little more secure and had a better name, I decided to try out this Econo Lodge. I was pleasantly surprised. The bed was comfortable. The channel selection on its Direct TV feed was large. There was plenty of light &amp; workspace in the room and the bathroom was great - well lit and quite large.  I will definitely stay here again. Staying in the adjoining rooms were roofers and other general contractors.  No issues with security.  I will pay higher prices at the chain that promises you a great night's sleep, LCD TVs, and tasty cinnamon rolls when I feel like doubling the cost of a night's stay. When it's time for business and saving cash, this Econo Lodge was perfect.Lastly, I also enjoyed parking my car right outside my door. I hadn't experienced that perk at the higher priced chains.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r63365117-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -803,9 +1084,6 @@
     <t>April 2010</t>
   </si>
   <si>
-    <t>TLBowman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r40714320-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
   </si>
   <si>
@@ -825,9 +1103,6 @@
   </si>
   <si>
     <t>I will admit that I have stayed in better and nicer places, but it was still ok.  I was here for only one night, as my other hotel did not have a room for me.  The hotel is old.  That much is apparent as soon as you get out to check in.  There is a "gentlemans club" right across the street and a convience store and Whatburger with in walking distance.  My room was clean but it is needing updating and repairs.  The bathroom was very large.  The bed was kinda hard, but I am used to a much softer mattress.  The breakfast was minal at best.  There is WiFi and a pc with computer access in the lobby.  I did not venture out of my room past night fall, and I kept the door firmly locked.  My room was not working properly at check in but they fixed it right away.  There was a mini fridge and microwave in the room.  When I opened the fridge to put some water in, the smell about knocked me over.  I quickly shut it and left it that way.  There was some damage to the bathroom that I noted.More</t>
-  </si>
-  <si>
-    <t>Janet G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r19516143-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
@@ -865,6 +1140,45 @@
 There was a broken fan just lying in the middle of the walkway to our hotel room, forcing us to hoist all our luggage over the fan (and from the dirt on it,it looked like it'd been there for quite a few days) just to get by.
 The room itself was decent sized, but smelled strongly of cleaning agents and mildew. The air conditioner took several tries to start as the knob was loose.
 We basically walked in our room, saw the condition, felt completely uncomfortable, and unsafe, so we walked back out and asked for a refund. While the staff was willing to help us, the manager was incredibly rude. He flat out said "I don't believe you" when we told him we hadn't touched anything in...The area around the hotel itself appeared to be a bit seedy -- the establishment across the street looked like a strip club.This hotel lacks elevators, so luggage has to be carried to the second floor up very narrow stairs. This hotel is the type where each hotel room opens to the outside, and the "hallway" is located outdoors as well. There does not appear to be much in terms of security besides a deadbolt on your hotel room door, and the rooms towards the back of the hotel definitely didn't feel very secure. This problem was exacerbated by the fact that the door did not seal properly for our room.There was a broken fan just lying in the middle of the walkway to our hotel room, forcing us to hoist all our luggage over the fan (and from the dirt on it,it looked like it'd been there for quite a few days) just to get by.The room itself was decent sized, but smelled strongly of cleaning agents and mildew. The air conditioner took several tries to start as the knob was loose.We basically walked in our room, saw the condition, felt completely uncomfortable, and unsafe, so we walked back out and asked for a refund. While the staff was willing to help us, the manager was incredibly rude. He flat out said "I don't believe you" when we told him we hadn't touched anything in the room outside of the door and the air conditioning unit. We told him we could wait for him to inspect the room if he liked, but our check-in to check-out time elapsed was under 30 min -- which would have been faster if we hadn't spent 10 minutes lugging our stuff to our room and then another 10 to come back out.This was a thoroughly unpleasant experience. We managed to find a really nice Marriott hotel located just minutes from Downtown Dallas for just $30 more per night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r17380425-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>17380425</t>
+  </si>
+  <si>
+    <t>06/30/2008</t>
+  </si>
+  <si>
+    <t>Bad, even for a budget motel</t>
+  </si>
+  <si>
+    <t>The mattress was so lumpy that I had trouble sleeping and woke up sore -- the worst I've ever slept in, including camping trips.  The floors and towels were noticeably dirty, and the room interior was a bit run-down.  The hotel staff wasn't very helpful (we asked for extra pillows, and got them, but without any pillowcases) or knowledgeable (they couldn't recommend any place to eat other than the Grandy's next door).I prefer to stay in budget accommodations and have had good experiences at several other EconoLodges, so don't think that this review is from some uptight prude afraid of roughing it.  But for $70, I expect basic cleanliness and a mattress that is at least as comfortable as a sleeping bag spread on the ground.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>The mattress was so lumpy that I had trouble sleeping and woke up sore -- the worst I've ever slept in, including camping trips.  The floors and towels were noticeably dirty, and the room interior was a bit run-down.  The hotel staff wasn't very helpful (we asked for extra pillows, and got them, but without any pillowcases) or knowledgeable (they couldn't recommend any place to eat other than the Grandy's next door).I prefer to stay in budget accommodations and have had good experiences at several other EconoLodges, so don't think that this review is from some uptight prude afraid of roughing it.  But for $70, I expect basic cleanliness and a mattress that is at least as comfortable as a sleeping bag spread on the ground.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d98690-r14189299-Motel_6_Dallas_Market_Center-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>14189299</t>
+  </si>
+  <si>
+    <t>03/10/2008</t>
+  </si>
+  <si>
+    <t>Perfectly fine for what it is...</t>
+  </si>
+  <si>
+    <t>This hotel was not bad at all.  The location right off I-35 served us well, and the room was clean and spacious and served it's purpose.  Service was good, and there was a free continental breakfast that we missed because we didn't get up soon enough.  The only problem was that there was no hot water, or if there was, it was taking forever to build up.</t>
+  </si>
+  <si>
+    <t>March 2008</t>
   </si>
 </sst>
 </file>
@@ -1369,234 +1683,220 @@
       <c r="A2" t="n">
         <v>5194</v>
       </c>
-      <c r="B2" t="n">
-        <v>169311</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5194</v>
       </c>
-      <c r="B3" t="n">
-        <v>169312</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" t="s">
-        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5194</v>
       </c>
-      <c r="B4" t="n">
-        <v>169313</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5194</v>
       </c>
-      <c r="B5" t="n">
-        <v>5595</v>
-      </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1610,121 +1910,107 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5194</v>
       </c>
-      <c r="B6" t="n">
-        <v>169314</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5194</v>
       </c>
-      <c r="B7" t="n">
-        <v>169315</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
         <v>87</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>78</v>
-      </c>
-      <c r="O7" t="s">
-        <v>92</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1735,201 +2021,185 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>93</v>
-      </c>
-      <c r="X7" t="s">
-        <v>94</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5194</v>
       </c>
-      <c r="B8" t="n">
-        <v>169316</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5194</v>
       </c>
-      <c r="B9" t="n">
-        <v>169317</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5194</v>
       </c>
-      <c r="B10" t="n">
-        <v>169318</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1937,252 +2207,226 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5194</v>
       </c>
-      <c r="B11" t="n">
-        <v>29833</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5194</v>
       </c>
-      <c r="B12" t="n">
-        <v>113047</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5194</v>
       </c>
-      <c r="B13" t="n">
-        <v>169319</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>143</v>
-      </c>
-      <c r="O13" t="s">
-        <v>135</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>2</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>144</v>
-      </c>
-      <c r="X13" t="s">
-        <v>145</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5194</v>
       </c>
-      <c r="B14" t="n">
-        <v>169320</v>
-      </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>110</v>
+      </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
@@ -2192,130 +2436,124 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>153</v>
-      </c>
-      <c r="X14" t="s">
-        <v>154</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5194</v>
       </c>
-      <c r="B15" t="n">
-        <v>169321</v>
-      </c>
-      <c r="C15" t="s">
-        <v>156</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5194</v>
       </c>
-      <c r="B16" t="n">
-        <v>24107</v>
-      </c>
-      <c r="C16" t="s">
-        <v>163</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -2324,396 +2562,372 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>169</v>
-      </c>
-      <c r="X16" t="s">
-        <v>170</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5194</v>
       </c>
-      <c r="B17" t="n">
-        <v>8855</v>
-      </c>
-      <c r="C17" t="s">
-        <v>172</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>151</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>3</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>152</v>
+      </c>
+      <c r="X17" t="s">
+        <v>153</v>
+      </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5194</v>
       </c>
-      <c r="B18" t="n">
-        <v>169322</v>
-      </c>
-      <c r="C18" t="s">
-        <v>178</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>151</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>3</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>161</v>
+      </c>
+      <c r="X18" t="s">
+        <v>162</v>
+      </c>
       <c r="Y18" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5194</v>
       </c>
-      <c r="B19" t="n">
-        <v>169323</v>
-      </c>
-      <c r="C19" t="s">
-        <v>184</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>170</v>
+      </c>
+      <c r="X19" t="s">
+        <v>171</v>
+      </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5194</v>
       </c>
-      <c r="B20" t="n">
-        <v>169324</v>
-      </c>
-      <c r="C20" t="s">
-        <v>191</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5194</v>
       </c>
-      <c r="B21" t="n">
-        <v>813</v>
-      </c>
-      <c r="C21" t="s">
-        <v>198</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="s"/>
+        <v>151</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>185</v>
+      </c>
+      <c r="X21" t="s">
+        <v>186</v>
+      </c>
       <c r="Y21" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5194</v>
       </c>
-      <c r="B22" t="n">
-        <v>648</v>
-      </c>
-      <c r="C22" t="s">
-        <v>204</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" t="n">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
         <v>5</v>
       </c>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
@@ -2725,414 +2939,354 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5194</v>
       </c>
-      <c r="B23" t="n">
-        <v>169325</v>
-      </c>
-      <c r="C23" t="s">
-        <v>211</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="L23" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>151</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>3</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5194</v>
       </c>
-      <c r="B24" t="n">
-        <v>169326</v>
-      </c>
-      <c r="C24" t="s">
-        <v>217</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>223</v>
-      </c>
-      <c r="O24" t="s">
-        <v>79</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>203</v>
+      </c>
+      <c r="X24" t="s">
+        <v>204</v>
+      </c>
       <c r="Y24" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5194</v>
       </c>
-      <c r="B25" t="n">
-        <v>169327</v>
-      </c>
-      <c r="C25" t="s">
-        <v>225</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="K25" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="O25" t="s">
-        <v>92</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>4</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5194</v>
       </c>
-      <c r="B26" t="n">
-        <v>117539</v>
-      </c>
-      <c r="C26" t="s">
-        <v>232</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="J26" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="L26" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>217</v>
+      </c>
+      <c r="X26" t="s">
+        <v>218</v>
+      </c>
       <c r="Y26" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5194</v>
       </c>
-      <c r="B27" t="n">
-        <v>10172</v>
-      </c>
-      <c r="C27" t="s">
-        <v>238</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="J27" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s">
-        <v>79</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5194</v>
       </c>
-      <c r="B28" t="n">
-        <v>169328</v>
-      </c>
-      <c r="C28" t="s">
-        <v>245</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
       </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -3143,70 +3297,62 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5194</v>
       </c>
-      <c r="B29" t="n">
-        <v>169329</v>
-      </c>
-      <c r="C29" t="s">
-        <v>252</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="J29" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="K29" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" t="s">
-        <v>258</v>
-      </c>
-      <c r="O29" t="s">
-        <v>79</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
         <v>3</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3214,55 +3360,47 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5194</v>
       </c>
-      <c r="B30" t="n">
-        <v>169330</v>
-      </c>
-      <c r="C30" t="s">
-        <v>259</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="K30" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
-      <c r="N30" t="s">
-        <v>265</v>
-      </c>
-      <c r="O30" t="s">
-        <v>63</v>
-      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
       <c r="P30" t="n">
         <v>5</v>
       </c>
@@ -3273,11 +3411,11 @@
         <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3285,82 +3423,1500 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5194</v>
       </c>
-      <c r="B31" t="n">
-        <v>16146</v>
-      </c>
-      <c r="C31" t="s">
-        <v>267</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="J31" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="K31" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="L31" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>246</v>
+      </c>
+      <c r="O32" t="s">
+        <v>151</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>252</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>253</v>
+      </c>
+      <c r="J33" t="s">
+        <v>254</v>
+      </c>
+      <c r="K33" t="s">
+        <v>255</v>
+      </c>
+      <c r="L33" t="s">
+        <v>256</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
         <v>2</v>
       </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="s">
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>258</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>259</v>
+      </c>
+      <c r="J34" t="s">
+        <v>260</v>
+      </c>
+      <c r="K34" t="s">
+        <v>261</v>
+      </c>
+      <c r="L34" t="s">
+        <v>262</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>263</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>265</v>
+      </c>
+      <c r="J35" t="s">
+        <v>266</v>
+      </c>
+      <c r="K35" t="s">
+        <v>267</v>
+      </c>
+      <c r="L35" t="s">
+        <v>268</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>263</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>270</v>
+      </c>
+      <c r="J36" t="s">
+        <v>271</v>
+      </c>
+      <c r="K36" t="s">
+        <v>272</v>
+      </c>
+      <c r="L36" t="s">
+        <v>273</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
         <v>274</v>
       </c>
-      <c r="X31" t="s">
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
         <v>275</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
         <v>276</v>
+      </c>
+      <c r="J37" t="s">
+        <v>277</v>
+      </c>
+      <c r="K37" t="s">
+        <v>278</v>
+      </c>
+      <c r="L37" t="s">
+        <v>279</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>280</v>
+      </c>
+      <c r="O37" t="s">
+        <v>87</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>281</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>282</v>
+      </c>
+      <c r="J38" t="s">
+        <v>283</v>
+      </c>
+      <c r="K38" t="s">
+        <v>284</v>
+      </c>
+      <c r="L38" t="s">
+        <v>285</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>286</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>287</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>288</v>
+      </c>
+      <c r="J39" t="s">
+        <v>289</v>
+      </c>
+      <c r="K39" t="s">
+        <v>290</v>
+      </c>
+      <c r="L39" t="s">
+        <v>291</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>292</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>293</v>
+      </c>
+      <c r="J40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K40" t="s">
+        <v>295</v>
+      </c>
+      <c r="L40" t="s">
+        <v>296</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>297</v>
+      </c>
+      <c r="O40" t="s">
+        <v>87</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>299</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>300</v>
+      </c>
+      <c r="J41" t="s">
+        <v>301</v>
+      </c>
+      <c r="K41" t="s">
+        <v>302</v>
+      </c>
+      <c r="L41" t="s">
+        <v>303</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>297</v>
+      </c>
+      <c r="O41" t="s">
+        <v>110</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>305</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>306</v>
+      </c>
+      <c r="J42" t="s">
+        <v>307</v>
+      </c>
+      <c r="K42" t="s">
+        <v>308</v>
+      </c>
+      <c r="L42" t="s">
+        <v>309</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>297</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>310</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>311</v>
+      </c>
+      <c r="J43" t="s">
+        <v>312</v>
+      </c>
+      <c r="K43" t="s">
+        <v>313</v>
+      </c>
+      <c r="L43" t="s">
+        <v>314</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>316</v>
+      </c>
+      <c r="J44" t="s">
+        <v>317</v>
+      </c>
+      <c r="K44" t="s">
+        <v>318</v>
+      </c>
+      <c r="L44" t="s">
+        <v>319</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>321</v>
+      </c>
+      <c r="J45" t="s">
+        <v>322</v>
+      </c>
+      <c r="K45" t="s">
+        <v>323</v>
+      </c>
+      <c r="L45" t="s">
+        <v>324</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>325</v>
+      </c>
+      <c r="O45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>326</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>327</v>
+      </c>
+      <c r="J46" t="s">
+        <v>328</v>
+      </c>
+      <c r="K46" t="s">
+        <v>329</v>
+      </c>
+      <c r="L46" t="s">
+        <v>330</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>331</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>332</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>333</v>
+      </c>
+      <c r="J47" t="s">
+        <v>334</v>
+      </c>
+      <c r="K47" t="s">
+        <v>335</v>
+      </c>
+      <c r="L47" t="s">
+        <v>336</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>337</v>
+      </c>
+      <c r="O47" t="s">
+        <v>110</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>339</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>340</v>
+      </c>
+      <c r="J48" t="s">
+        <v>341</v>
+      </c>
+      <c r="K48" t="s">
+        <v>342</v>
+      </c>
+      <c r="L48" t="s">
+        <v>343</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>344</v>
+      </c>
+      <c r="O48" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>346</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>347</v>
+      </c>
+      <c r="J49" t="s">
+        <v>348</v>
+      </c>
+      <c r="K49" t="s">
+        <v>349</v>
+      </c>
+      <c r="L49" t="s">
+        <v>350</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>351</v>
+      </c>
+      <c r="O49" t="s">
+        <v>87</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>352</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>353</v>
+      </c>
+      <c r="J50" t="s">
+        <v>354</v>
+      </c>
+      <c r="K50" t="s">
+        <v>355</v>
+      </c>
+      <c r="L50" t="s">
+        <v>356</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>357</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>359</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>360</v>
+      </c>
+      <c r="J51" t="s">
+        <v>361</v>
+      </c>
+      <c r="K51" t="s">
+        <v>362</v>
+      </c>
+      <c r="L51" t="s">
+        <v>363</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>364</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>365</v>
+      </c>
+      <c r="X51" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>368</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>369</v>
+      </c>
+      <c r="J52" t="s">
+        <v>370</v>
+      </c>
+      <c r="K52" t="s">
+        <v>371</v>
+      </c>
+      <c r="L52" t="s">
+        <v>372</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>373</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>365</v>
+      </c>
+      <c r="X52" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5194</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>375</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>376</v>
+      </c>
+      <c r="J53" t="s">
+        <v>377</v>
+      </c>
+      <c r="K53" t="s">
+        <v>378</v>
+      </c>
+      <c r="L53" t="s">
+        <v>379</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>380</v>
+      </c>
+      <c r="O53" t="s">
+        <v>151</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
